--- a/docs/grammar.xlsx
+++ b/docs/grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan Munro\Dropbox\dev\lazarus\computing\z80\xa80\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1680FE3-062F-4623-A853-C3ED81742369}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851720B-E753-4DF1-90CC-BD8DA78AEA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2688" yWindow="408" windowWidth="20004" windowHeight="11832" activeTab="1" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="308">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="334">
   <si>
     <t>Sub-option</t>
   </si>
@@ -581,24 +581,9 @@
     <t>CPU</t>
   </si>
   <si>
-    <t>DB DEFB</t>
-  </si>
-  <si>
-    <t>DC DEFC</t>
-  </si>
-  <si>
     <t>MACRO</t>
   </si>
   <si>
-    <t>DS DEFS</t>
-  </si>
-  <si>
-    <t>DW DEFW</t>
-  </si>
-  <si>
-    <t>DD DEFD</t>
-  </si>
-  <si>
     <t>ELSE</t>
   </si>
   <si>
@@ -611,9 +596,6 @@
     <t>ENDM</t>
   </si>
   <si>
-    <t>EQU =</t>
-  </si>
-  <si>
     <t>ERROR</t>
   </si>
   <si>
@@ -632,21 +614,6 @@
     <t>MESSAGE</t>
   </si>
   <si>
-    <t>ORG ORIGIN</t>
-  </si>
-  <si>
-    <t>RPT REPEAT</t>
-  </si>
-  <si>
-    <t>CSEG CODE</t>
-  </si>
-  <si>
-    <t>DSEG DATA</t>
-  </si>
-  <si>
-    <t>USEG UDATA</t>
-  </si>
-  <si>
     <t>SET</t>
   </si>
   <si>
@@ -656,12 +623,6 @@
     <t>WARNING</t>
   </si>
   <si>
-    <t>* ; //</t>
-  </si>
-  <si>
-    <t>; //</t>
-  </si>
-  <si>
     <t>Optional</t>
   </si>
   <si>
@@ -680,18 +641,9 @@
     <t>[0-9A-Za-z_]</t>
   </si>
   <si>
-    <t>DZ DEFZ</t>
-  </si>
-  <si>
-    <t>DM DEFM</t>
-  </si>
-  <si>
     <t>ENDR</t>
   </si>
   <si>
-    <t>EXTERN EXTERNAL</t>
-  </si>
-  <si>
     <t>GLOBAL</t>
   </si>
   <si>
@@ -699,12 +651,6 @@
   </si>
   <si>
     <t>EscapeNumbers</t>
-  </si>
-  <si>
-    <t>octal Xhex xhex</t>
-  </si>
-  <si>
-    <t>? \ " ' a b e f n r t v</t>
   </si>
   <si>
     <t>ooo octal / xhh hex / Xhh hex</t>
@@ -728,9 +674,6 @@
 {e}? = Question mark</t>
   </si>
   <si>
-    <t>0bnnnn 0Bnnnn %nnnn nnnnb nnnnB</t>
-  </si>
-  <si>
     <t>nnnn nnnnd nnnnD</t>
   </si>
   <si>
@@ -758,9 +701,6 @@
     <t>String showing octal formats</t>
   </si>
   <si>
-    <t>0xnnnn 0Xnnnn $nnnn #nnnn nnnnh nnnnH</t>
-  </si>
-  <si>
     <t>nnnnO nnnno nnnnQ nnnnq</t>
   </si>
   <si>
@@ -776,30 +716,15 @@
     <t>Choice of: Always global / Global if prefixed / Local if prefixed / Always local</t>
   </si>
   <si>
-    <t>Global if prefixed</t>
-  </si>
-  <si>
     <t>%G%</t>
   </si>
   <si>
-    <t>{spc} {tab}</t>
-  </si>
-  <si>
-    <t>,</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> "</t>
-  </si>
-  <si>
     <t>Sources</t>
   </si>
   <si>
     <t>8080 - Intel 8080 Assembly Language Programming Manual, 1975, MCS-482-0275/15K</t>
   </si>
   <si>
-    <t>ParserTabsize</t>
-  </si>
-  <si>
     <t>Mandatory</t>
   </si>
   <si>
@@ -815,57 +740,12 @@
     <t>'</t>
   </si>
   <si>
-    <t>' "</t>
-  </si>
-  <si>
-    <t>MOD</t>
-  </si>
-  <si>
     <t>OpBracketOpen</t>
   </si>
   <si>
     <t>OpBracketClose</t>
   </si>
   <si>
-    <t>( [1]</t>
-  </si>
-  <si>
-    <t>) [1]</t>
-  </si>
-  <si>
-    <t>* [2]</t>
-  </si>
-  <si>
-    <t>/ [2]</t>
-  </si>
-  <si>
-    <t>MOD [2]</t>
-  </si>
-  <si>
-    <t>SHL [2]</t>
-  </si>
-  <si>
-    <t>SHR [2]</t>
-  </si>
-  <si>
-    <t>+ [3]</t>
-  </si>
-  <si>
-    <t>- [3]</t>
-  </si>
-  <si>
-    <t>NOT [4]</t>
-  </si>
-  <si>
-    <t>AND [5]</t>
-  </si>
-  <si>
-    <t>OR [6]</t>
-  </si>
-  <si>
-    <t>XOR [6]</t>
-  </si>
-  <si>
     <t>Issues</t>
   </si>
   <si>
@@ -899,79 +779,277 @@
     <t>Z80</t>
   </si>
   <si>
-    <t>HIGH( [2]</t>
-  </si>
-  <si>
-    <t>LOW( [2]</t>
-  </si>
-  <si>
-    <t>- [2]</t>
-  </si>
-  <si>
-    <t>+ [2]</t>
-  </si>
-  <si>
-    <t>* [3]</t>
-  </si>
-  <si>
-    <t>/ DIV [3]</t>
-  </si>
-  <si>
-    <t>&amp; [3]</t>
-  </si>
-  <si>
-    <t>^ [3]</t>
-  </si>
-  <si>
-    <t>&lt;&lt; [4]</t>
-  </si>
-  <si>
-    <t>&gt;&gt; [4]</t>
-  </si>
-  <si>
-    <t>+ [5]</t>
-  </si>
-  <si>
-    <t>- [5]</t>
-  </si>
-  <si>
-    <t>| [5]</t>
-  </si>
-  <si>
-    <t>== [6]</t>
-  </si>
-  <si>
-    <t>&gt; [6]</t>
-  </si>
-  <si>
-    <t>&gt;= [6]</t>
-  </si>
-  <si>
-    <t>&lt; [6]</t>
-  </si>
-  <si>
-    <t>&lt;= [6]</t>
-  </si>
-  <si>
-    <t>&lt;&gt; != [6]</t>
-  </si>
-  <si>
-    <t>&amp;&amp; AND [7]</t>
-  </si>
-  <si>
-    <t>^^ XOR [7]</t>
-  </si>
-  <si>
-    <t>|| OR [8]</t>
-  </si>
-  <si>
-    <t>! NOT [9]</t>
-  </si>
-  <si>
     <t>LabelPredefineReg</t>
   </si>
   <si>
     <t>True</t>
+  </si>
+  <si>
+    <t>LabelColonRuleEqu</t>
+  </si>
+  <si>
+    <t>LabelColonRuleNormal</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>TokeniserTabSize</t>
+  </si>
+  <si>
+    <t>MacroParamUse</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Intel 8080 Grammar</t>
+  </si>
+  <si>
+    <t>XA80 Grammar</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Duncan Munro</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>StringList</t>
+  </si>
+  <si>
+    <t>N/O/M</t>
+  </si>
+  <si>
+    <t>[?\"'abefnrtv]</t>
+  </si>
+  <si>
+    <t>CharSet</t>
+  </si>
+  <si>
+    <t>StringListOp</t>
+  </si>
+  <si>
+    <t>["']</t>
+  </si>
+  <si>
+    <t>Always Local</t>
+  </si>
+  <si>
+    <t>N/P/L</t>
+  </si>
+  <si>
+    <t>[/t ]</t>
+  </si>
+  <si>
+    <t>[,]</t>
+  </si>
+  <si>
+    <t>DB|DEFB</t>
+  </si>
+  <si>
+    <t>DS|DEFS</t>
+  </si>
+  <si>
+    <t>DM|DEFM</t>
+  </si>
+  <si>
+    <t>DC|DEFC</t>
+  </si>
+  <si>
+    <t>DZ|DEFZ</t>
+  </si>
+  <si>
+    <t>DW|DEFW</t>
+  </si>
+  <si>
+    <t>DD|DEFD</t>
+  </si>
+  <si>
+    <t>EXTERN|EXTERNAL</t>
+  </si>
+  <si>
+    <t>ORG|ORIGIN</t>
+  </si>
+  <si>
+    <t>RPT|REPEAT</t>
+  </si>
+  <si>
+    <t>CSEG|CODE</t>
+  </si>
+  <si>
+    <t>DSEG|DATA</t>
+  </si>
+  <si>
+    <t>USEG|UDATA</t>
+  </si>
+  <si>
+    <t>;|//</t>
+  </si>
+  <si>
+    <t>*|;|//</t>
+  </si>
+  <si>
+    <t>octal|Xhex|xhex</t>
+  </si>
+  <si>
+    <t>HIGH(|[2]</t>
+  </si>
+  <si>
+    <t>LOW(|[2]</t>
+  </si>
+  <si>
+    <t>0bnnnn|0Bnnnn|nnnnb|nnnnB</t>
+  </si>
+  <si>
+    <t>nnnn|nnnnd|nnnnD</t>
+  </si>
+  <si>
+    <t>0xnnnn|0Xnnnn|$nnnn|#nnnn|nnnnh|nnnnH</t>
+  </si>
+  <si>
+    <t>nnnnO|nnnno|nnnnQ|nnnnq|0onnnn|0Onnnn</t>
+  </si>
+  <si>
+    <t>+|[5]</t>
+  </si>
+  <si>
+    <t>/|DIV|[3]</t>
+  </si>
+  <si>
+    <t>MOD|[3]</t>
+  </si>
+  <si>
+    <t>*|[3]</t>
+  </si>
+  <si>
+    <t>&lt;&lt;|[4]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;|[4]</t>
+  </si>
+  <si>
+    <t>-|[5]</t>
+  </si>
+  <si>
+    <t>&amp;|[3]</t>
+  </si>
+  <si>
+    <t>{rule}|[5]</t>
+  </si>
+  <si>
+    <t>^|[3]</t>
+  </si>
+  <si>
+    <t>)|[1]</t>
+  </si>
+  <si>
+    <t>(|[1]</t>
+  </si>
+  <si>
+    <t>==|[6]</t>
+  </si>
+  <si>
+    <t>&gt;|[6]</t>
+  </si>
+  <si>
+    <t>&gt;=|[6]</t>
+  </si>
+  <si>
+    <t>&lt;|[6]</t>
+  </si>
+  <si>
+    <t>&lt;=|[6]</t>
+  </si>
+  <si>
+    <t>&lt;&gt;|!=|[6]</t>
+  </si>
+  <si>
+    <t>&amp;&amp;|AND|[7]</t>
+  </si>
+  <si>
+    <t>{rule}{rule}|OR|[8]</t>
+  </si>
+  <si>
+    <t>^^|XOR|[7]</t>
+  </si>
+  <si>
+    <t>-|[2]</t>
+  </si>
+  <si>
+    <t>!|NOT|[9]</t>
+  </si>
+  <si>
+    <t>+|[2]</t>
+  </si>
+  <si>
+    <t>+|[3]</t>
+  </si>
+  <si>
+    <t>/|[2]</t>
+  </si>
+  <si>
+    <t>MOD|[2]</t>
+  </si>
+  <si>
+    <t>*|[2]</t>
+  </si>
+  <si>
+    <t>SHL|[2]</t>
+  </si>
+  <si>
+    <t>SHR|[2]</t>
+  </si>
+  <si>
+    <t>-|[3]</t>
+  </si>
+  <si>
+    <t>AND|[5]</t>
+  </si>
+  <si>
+    <t>OR|[6]</t>
+  </si>
+  <si>
+    <t>XOR|[6]</t>
+  </si>
+  <si>
+    <t>NOT|[4]</t>
+  </si>
+  <si>
+    <t>CmdWhile</t>
+  </si>
+  <si>
+    <t>WHILE</t>
+  </si>
+  <si>
+    <t>CmdEndWhile</t>
+  </si>
+  <si>
+    <t>ENDW</t>
+  </si>
+  <si>
+    <t>SET|=</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Directive</t>
+  </si>
+  <si>
+    <t>Expression Operand</t>
   </si>
 </sst>
 </file>
@@ -1092,14 +1170,20 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:E96" totalsRowShown="0">
-  <autoFilter ref="A3:E96" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
-  <tableColumns count="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:H102" totalsRowShown="0">
+  <autoFilter ref="A3:H102" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F102">
+    <sortCondition ref="A4:A102"/>
+  </sortState>
+  <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{89255D4C-25D0-468B-8E6A-24B936C6C9CD}" name="Sub-option"/>
+    <tableColumn id="8" xr3:uid="{14A33000-07CF-4E7F-A3A7-6DD5D876125B}" name="Category"/>
     <tableColumn id="2" xr3:uid="{5A937276-0C63-462F-A17D-C2E89B0F2AAB}" name="i8080"/>
     <tableColumn id="3" xr3:uid="{1C6F851E-FC02-47A5-A815-8B02F25F6F82}" name="MACRO80"/>
     <tableColumn id="4" xr3:uid="{9F292503-5DA0-46B3-910B-50A3B315497C}" name="XA80"/>
     <tableColumn id="5" xr3:uid="{8C309080-6298-49FB-AFE5-E92E436FCC07}" name="Z80RIO"/>
+    <tableColumn id="6" xr3:uid="{6A61BDD8-E056-45EB-BC79-F608E66F3B7B}" name="Data Type"/>
+    <tableColumn id="7" xr3:uid="{E5A7DF7D-0B22-4EF8-8F6E-DF59DBCA34AF}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium13" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1829,13 +1913,13 @@
     </row>
     <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>220</v>
+        <v>204</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>223</v>
+        <v>205</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>224</v>
+        <v>206</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="216" x14ac:dyDescent="0.3">
@@ -1846,7 +1930,7 @@
         <v>44</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>225</v>
+        <v>207</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1975,10 +2059,10 @@
         <v>162</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>228</v>
+        <v>209</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1986,10 +2070,10 @@
         <v>161</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>229</v>
+        <v>210</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>231</v>
+        <v>212</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -1997,10 +2081,10 @@
         <v>164</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>233</v>
+        <v>214</v>
       </c>
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2008,26 +2092,26 @@
         <v>163</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>234</v>
+        <v>215</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>235</v>
+        <v>216</v>
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>239</v>
+        <v>219</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>238</v>
+        <v>218</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>55</v>
@@ -2041,7 +2125,7 @@
         <v>65</v>
       </c>
       <c r="B59" s="3" t="s">
-        <v>241</v>
+        <v>221</v>
       </c>
       <c r="C59" s="3" t="s">
         <v>66</v>
@@ -2387,918 +2471,1480 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FCB35D-BE1B-4C90-A6F7-1F428FFFD6EB}">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:H111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A72" workbookViewId="0">
-      <selection activeCell="D60" sqref="D60"/>
+    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.33203125" customWidth="1"/>
-    <col min="2" max="2" width="23.44140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.21875" customWidth="1"/>
-    <col min="4" max="4" width="36" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.109375" customWidth="1"/>
+    <col min="2" max="2" width="23.44140625" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="39.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.21875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>175</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>331</v>
+      </c>
+      <c r="C3" t="s">
         <v>176</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>178</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
         <v>177</v>
       </c>
-      <c r="E3" t="s">
+      <c r="F3" t="s">
         <v>179</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" t="s">
+        <v>254</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
         <v>147</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
+        <v>332</v>
+      </c>
+      <c r="C5" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G5" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
         <v>3</v>
       </c>
-      <c r="B5" t="s">
-        <v>274</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>280</v>
-      </c>
       <c r="B6" t="s">
-        <v>183</v>
-      </c>
-      <c r="D6" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="C6" t="s">
+        <v>234</v>
+      </c>
+      <c r="E6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>275</v>
-      </c>
-      <c r="D7" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="C7" t="s">
+        <v>235</v>
+      </c>
+      <c r="E7" t="s">
+        <v>270</v>
+      </c>
+      <c r="G7" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="D8" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>332</v>
+      </c>
+      <c r="E8" t="s">
+        <v>271</v>
+      </c>
+      <c r="G8" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
-      <c r="D9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="E9" t="s">
+        <v>272</v>
+      </c>
+      <c r="G9" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>12</v>
       </c>
-      <c r="D10" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>332</v>
+      </c>
+      <c r="E10" t="s">
+        <v>273</v>
+      </c>
+      <c r="G10" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>276</v>
-      </c>
-      <c r="D11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="C11" t="s">
+        <v>236</v>
+      </c>
+      <c r="E11" t="s">
+        <v>274</v>
+      </c>
+      <c r="G11" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>16</v>
       </c>
-      <c r="D12" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>332</v>
+      </c>
+      <c r="E12" t="s">
+        <v>275</v>
+      </c>
+      <c r="G12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
-      <c r="D13" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>332</v>
+      </c>
+      <c r="E13" t="s">
+        <v>182</v>
+      </c>
+      <c r="G13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="C14" t="s">
+        <v>183</v>
+      </c>
+      <c r="E14" t="s">
+        <v>183</v>
+      </c>
+      <c r="G14" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>189</v>
-      </c>
-      <c r="D15" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="C15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E15" t="s">
+        <v>184</v>
+      </c>
+      <c r="G15" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>190</v>
-      </c>
-      <c r="D16" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+      <c r="C16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E16" t="s">
+        <v>185</v>
+      </c>
+      <c r="G16" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="D17" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>332</v>
+      </c>
+      <c r="E17" t="s">
+        <v>201</v>
+      </c>
+      <c r="G17" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>328</v>
+      </c>
+      <c r="B18" t="s">
+        <v>332</v>
+      </c>
+      <c r="E18" t="s">
+        <v>329</v>
+      </c>
+      <c r="G18" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B19" t="s">
+        <v>332</v>
+      </c>
+      <c r="C19" t="s">
+        <v>237</v>
+      </c>
+      <c r="E19" t="s">
+        <v>237</v>
+      </c>
+      <c r="G19" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>151</v>
+      </c>
+      <c r="B20" t="s">
+        <v>332</v>
+      </c>
+      <c r="E20" t="s">
+        <v>186</v>
+      </c>
+      <c r="G20" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>173</v>
+      </c>
+      <c r="B21" t="s">
+        <v>332</v>
+      </c>
+      <c r="E21" t="s">
+        <v>276</v>
+      </c>
+      <c r="G21" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>171</v>
+      </c>
+      <c r="B22" t="s">
+        <v>332</v>
+      </c>
+      <c r="E22" t="s">
+        <v>202</v>
+      </c>
+      <c r="G22" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>88</v>
+      </c>
+      <c r="B23" t="s">
+        <v>332</v>
+      </c>
+      <c r="C23" t="s">
+        <v>187</v>
+      </c>
+      <c r="E23" t="s">
+        <v>187</v>
+      </c>
+      <c r="G23" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>94</v>
+      </c>
+      <c r="B24" t="s">
+        <v>332</v>
+      </c>
+      <c r="E24" t="s">
+        <v>188</v>
+      </c>
+      <c r="G24" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" t="s">
+        <v>189</v>
+      </c>
+      <c r="G25" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>332</v>
+      </c>
+      <c r="E26" t="s">
+        <v>190</v>
+      </c>
+      <c r="G26" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>240</v>
+      </c>
+      <c r="B27" t="s">
+        <v>332</v>
+      </c>
+      <c r="C27" t="s">
+        <v>181</v>
+      </c>
+      <c r="E27" t="s">
+        <v>181</v>
+      </c>
+      <c r="G27" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>155</v>
+      </c>
+      <c r="B28" t="s">
+        <v>332</v>
+      </c>
+      <c r="E28" t="s">
+        <v>191</v>
+      </c>
+      <c r="G28" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>159</v>
+      </c>
+      <c r="B29" t="s">
+        <v>332</v>
+      </c>
+      <c r="C29" t="s">
+        <v>238</v>
+      </c>
+      <c r="E29" t="s">
         <v>277</v>
       </c>
-      <c r="D18" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>151</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="G29" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>332</v>
+      </c>
+      <c r="E30" t="s">
+        <v>278</v>
+      </c>
+      <c r="G30" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" t="s">
+        <v>332</v>
+      </c>
+      <c r="E31" t="s">
+        <v>279</v>
+      </c>
+      <c r="G31" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>168</v>
+      </c>
+      <c r="B32" t="s">
+        <v>332</v>
+      </c>
+      <c r="E32" t="s">
+        <v>280</v>
+      </c>
+      <c r="G32" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>167</v>
+      </c>
+      <c r="B33" t="s">
+        <v>332</v>
+      </c>
+      <c r="E33" t="s">
+        <v>281</v>
+      </c>
+      <c r="G33" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>30</v>
+      </c>
+      <c r="B34" t="s">
+        <v>332</v>
+      </c>
+      <c r="C34" t="s">
         <v>192</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>173</v>
-      </c>
-      <c r="D20" t="s">
+      <c r="E34" t="s">
+        <v>330</v>
+      </c>
+      <c r="G34" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B35" t="s">
+        <v>332</v>
+      </c>
+      <c r="E35" t="s">
+        <v>193</v>
+      </c>
+      <c r="G35" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>332</v>
+      </c>
+      <c r="E36" t="s">
+        <v>194</v>
+      </c>
+      <c r="G36" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>326</v>
+      </c>
+      <c r="B37" t="s">
+        <v>332</v>
+      </c>
+      <c r="E37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>32</v>
+      </c>
+      <c r="E38" t="s">
+        <v>282</v>
+      </c>
+      <c r="G38" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>34</v>
+      </c>
+      <c r="E39" t="s">
+        <v>283</v>
+      </c>
+      <c r="G39" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>239</v>
+      </c>
+      <c r="C40" s="6">
+        <v>0</v>
+      </c>
+      <c r="D40" s="6"/>
+      <c r="E40" s="6">
+        <v>0</v>
+      </c>
+      <c r="F40" s="6"/>
+      <c r="G40" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>241</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D41" s="6"/>
+      <c r="E41" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="F41" s="6"/>
+      <c r="G41" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" t="s">
+        <v>36</v>
+      </c>
+      <c r="E42" t="s">
+        <v>195</v>
+      </c>
+      <c r="G42" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>38</v>
+      </c>
+      <c r="E43" t="s">
+        <v>195</v>
+      </c>
+      <c r="G43" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" t="s">
+        <v>196</v>
+      </c>
+      <c r="G44" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" t="s">
+        <v>204</v>
+      </c>
+      <c r="E45" t="s">
+        <v>284</v>
+      </c>
+      <c r="G45" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" t="s">
+        <v>43</v>
+      </c>
+      <c r="E46" t="s">
+        <v>261</v>
+      </c>
+      <c r="G46" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" t="s">
+        <v>133</v>
+      </c>
+      <c r="C47" t="s">
+        <v>197</v>
+      </c>
+      <c r="E47" t="s">
+        <v>197</v>
+      </c>
+      <c r="G47" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" t="s">
+        <v>333</v>
+      </c>
+      <c r="E48" t="s">
+        <v>285</v>
+      </c>
+      <c r="G48" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" t="s">
+        <v>333</v>
+      </c>
+      <c r="E49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" t="s">
+        <v>45</v>
+      </c>
+      <c r="E50" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" t="s">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>200</v>
+      </c>
+      <c r="G51" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" t="s">
+        <v>47</v>
+      </c>
+      <c r="E52" t="s">
+        <v>199</v>
+      </c>
+      <c r="G52" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" t="s">
+        <v>245</v>
+      </c>
+      <c r="C53" t="s">
+        <v>247</v>
+      </c>
+      <c r="E53" t="s">
+        <v>247</v>
+      </c>
+      <c r="G53" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" t="s">
+        <v>246</v>
+      </c>
+      <c r="C54" t="s">
+        <v>225</v>
+      </c>
+      <c r="E54" t="s">
+        <v>195</v>
+      </c>
+      <c r="G54" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>203</v>
+      </c>
+      <c r="G55" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>57</v>
+      </c>
+      <c r="G56" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>59</v>
+      </c>
+      <c r="C57" s="6">
+        <v>128</v>
+      </c>
+      <c r="E57" s="5">
+        <v>128</v>
+      </c>
+      <c r="G57" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" t="s">
+        <v>62</v>
+      </c>
+      <c r="C58" s="6">
+        <v>5</v>
+      </c>
+      <c r="E58" s="5">
+        <v>128</v>
+      </c>
+      <c r="G58" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" t="s">
+        <v>243</v>
+      </c>
+      <c r="C59" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E59" s="8" t="s">
+        <v>198</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" t="s">
+        <v>228</v>
+      </c>
+      <c r="B60" t="s">
+        <v>333</v>
+      </c>
+      <c r="C60" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E60" s="8" t="s">
+        <v>264</v>
+      </c>
+      <c r="G60" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" t="s">
+        <v>162</v>
+      </c>
+      <c r="B61" t="s">
+        <v>333</v>
+      </c>
+      <c r="C61" t="s">
+        <v>227</v>
+      </c>
+      <c r="E61" t="s">
+        <v>287</v>
+      </c>
+      <c r="G61" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" t="s">
+        <v>161</v>
+      </c>
+      <c r="B62" t="s">
+        <v>333</v>
+      </c>
+      <c r="C62" t="s">
+        <v>208</v>
+      </c>
+      <c r="E62" t="s">
+        <v>288</v>
+      </c>
+      <c r="G62" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" t="s">
+        <v>164</v>
+      </c>
+      <c r="B63" t="s">
+        <v>333</v>
+      </c>
+      <c r="C63" t="s">
+        <v>226</v>
+      </c>
+      <c r="E63" t="s">
+        <v>289</v>
+      </c>
+      <c r="G63" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" t="s">
+        <v>163</v>
+      </c>
+      <c r="C64" t="s">
         <v>217</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s">
+      <c r="E64" t="s">
+        <v>290</v>
+      </c>
+      <c r="G64" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" t="s">
+        <v>219</v>
+      </c>
+      <c r="E65" t="s">
+        <v>222</v>
+      </c>
+      <c r="G65" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>88</v>
-      </c>
-      <c r="B22" t="s">
-        <v>193</v>
-      </c>
-      <c r="D22" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>94</v>
-      </c>
-      <c r="D23" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D24" t="s">
+      <c r="G66" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" t="s">
+        <v>65</v>
+      </c>
+      <c r="E67" t="s">
+        <v>265</v>
+      </c>
+      <c r="G67" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" t="s">
+        <v>67</v>
+      </c>
+      <c r="G68" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>249</v>
+      </c>
+      <c r="G69" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" t="s">
+        <v>107</v>
+      </c>
+      <c r="B70" t="s">
+        <v>333</v>
+      </c>
+      <c r="C70" s="4" t="s">
+        <v>315</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>291</v>
+      </c>
+      <c r="G70" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" t="s">
+        <v>111</v>
+      </c>
+      <c r="B71" t="s">
+        <v>333</v>
+      </c>
+      <c r="C71" s="4" t="s">
+        <v>316</v>
+      </c>
+      <c r="E71" s="4" t="s">
+        <v>292</v>
+      </c>
+      <c r="G71" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" t="s">
+        <v>333</v>
+      </c>
+      <c r="C72" t="s">
+        <v>317</v>
+      </c>
+      <c r="E72" s="4" t="s">
+        <v>293</v>
+      </c>
+      <c r="G72" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" t="s">
+        <v>113</v>
+      </c>
+      <c r="B73" t="s">
+        <v>333</v>
+      </c>
+      <c r="C73" s="4" t="s">
+        <v>318</v>
+      </c>
+      <c r="E73" s="4" t="s">
+        <v>294</v>
+      </c>
+      <c r="G73" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" t="s">
+        <v>115</v>
+      </c>
+      <c r="B74" t="s">
+        <v>333</v>
+      </c>
+      <c r="C74" t="s">
+        <v>319</v>
+      </c>
+      <c r="E74" s="4" t="s">
+        <v>295</v>
+      </c>
+      <c r="G74" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75" t="s">
+        <v>333</v>
+      </c>
+      <c r="C75" t="s">
+        <v>320</v>
+      </c>
+      <c r="E75" s="4" t="s">
+        <v>296</v>
+      </c>
+      <c r="G75" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" t="s">
+        <v>109</v>
+      </c>
+      <c r="B76" t="s">
+        <v>333</v>
+      </c>
+      <c r="C76" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E76" s="4" t="s">
+        <v>297</v>
+      </c>
+      <c r="G76" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" t="s">
+        <v>129</v>
+      </c>
+      <c r="B77" t="s">
+        <v>333</v>
+      </c>
+      <c r="E77" s="4" t="s">
+        <v>298</v>
+      </c>
+      <c r="G77" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" t="s">
+        <v>124</v>
+      </c>
+      <c r="B78" t="s">
+        <v>333</v>
+      </c>
+      <c r="E78" s="4" t="s">
+        <v>299</v>
+      </c>
+      <c r="G78" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" t="s">
+        <v>333</v>
+      </c>
+      <c r="E79" s="4" t="s">
+        <v>300</v>
+      </c>
+      <c r="G79" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" t="s">
+        <v>231</v>
+      </c>
+      <c r="B80" t="s">
+        <v>333</v>
+      </c>
+      <c r="C80" t="s">
+        <v>301</v>
+      </c>
+      <c r="E80" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="G80" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" t="s">
+        <v>230</v>
+      </c>
+      <c r="B81" t="s">
+        <v>333</v>
+      </c>
+      <c r="C81" t="s">
+        <v>302</v>
+      </c>
+      <c r="E81" s="4" t="s">
+        <v>302</v>
+      </c>
+      <c r="G81" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" t="s">
+        <v>69</v>
+      </c>
+      <c r="B82" t="s">
+        <v>333</v>
+      </c>
+      <c r="E82" t="s">
         <v>195</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="D25" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>159</v>
-      </c>
-      <c r="B27" t="s">
-        <v>278</v>
-      </c>
-      <c r="D27" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
-      </c>
-      <c r="D28" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>169</v>
-      </c>
-      <c r="D29" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>168</v>
-      </c>
-      <c r="D30" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>167</v>
-      </c>
-      <c r="D31" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>30</v>
-      </c>
-      <c r="B32" t="s">
-        <v>203</v>
-      </c>
-      <c r="D32" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>156</v>
-      </c>
-      <c r="D33" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>152</v>
-      </c>
-      <c r="D34" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>32</v>
-      </c>
-      <c r="D35" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D36" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>279</v>
-      </c>
-      <c r="B37" s="6">
-        <v>0</v>
-      </c>
-      <c r="C37" s="6"/>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" t="s">
-        <v>281</v>
-      </c>
-      <c r="B38" s="6" t="s">
-        <v>176</v>
-      </c>
-      <c r="C38" s="6"/>
-      <c r="D38" s="6" t="s">
-        <v>282</v>
-      </c>
-      <c r="E38" s="6"/>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" t="s">
-        <v>38</v>
-      </c>
-      <c r="D40" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A41" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D42" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A43" t="s">
-        <v>220</v>
-      </c>
-      <c r="D43" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" t="s">
-        <v>133</v>
-      </c>
-      <c r="B44" t="s">
-        <v>210</v>
-      </c>
-      <c r="D44" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" t="s">
-        <v>86</v>
-      </c>
-      <c r="D45" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" t="s">
-        <v>84</v>
-      </c>
-      <c r="D46" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" t="s">
-        <v>45</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>50</v>
-      </c>
-      <c r="D48" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A49" t="s">
-        <v>47</v>
-      </c>
-      <c r="D49" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B50" t="s">
+      <c r="G82" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" t="s">
+        <v>135</v>
+      </c>
+      <c r="B83" t="s">
+        <v>333</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>303</v>
+      </c>
+      <c r="G83" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" t="s">
+        <v>136</v>
+      </c>
+      <c r="B84" t="s">
+        <v>333</v>
+      </c>
+      <c r="E84" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="G84" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" t="s">
+        <v>137</v>
+      </c>
+      <c r="B85" t="s">
+        <v>333</v>
+      </c>
+      <c r="E85" s="4" t="s">
+        <v>305</v>
+      </c>
+      <c r="G85" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" t="s">
+        <v>138</v>
+      </c>
+      <c r="B86" t="s">
+        <v>333</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>306</v>
+      </c>
+      <c r="G86" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" t="s">
+        <v>139</v>
+      </c>
+      <c r="B87" t="s">
+        <v>333</v>
+      </c>
+      <c r="E87" s="4" t="s">
+        <v>307</v>
+      </c>
+      <c r="G87" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" t="s">
+        <v>140</v>
+      </c>
+      <c r="B88" t="s">
+        <v>333</v>
+      </c>
+      <c r="E88" s="4" t="s">
+        <v>308</v>
+      </c>
+      <c r="G88" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" t="s">
+        <v>119</v>
+      </c>
+      <c r="B89" t="s">
+        <v>333</v>
+      </c>
+      <c r="C89" t="s">
+        <v>322</v>
+      </c>
+      <c r="E89" s="4" t="s">
+        <v>309</v>
+      </c>
+      <c r="G89" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" t="s">
+        <v>120</v>
+      </c>
+      <c r="B90" t="s">
+        <v>333</v>
+      </c>
+      <c r="C90" t="s">
+        <v>323</v>
+      </c>
+      <c r="E90" t="s">
+        <v>310</v>
+      </c>
+      <c r="G90" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" t="s">
+        <v>121</v>
+      </c>
+      <c r="B91" t="s">
+        <v>333</v>
+      </c>
+      <c r="C91" t="s">
+        <v>324</v>
+      </c>
+      <c r="E91" t="s">
+        <v>311</v>
+      </c>
+      <c r="G91" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" t="s">
+        <v>103</v>
+      </c>
+      <c r="B92" t="s">
+        <v>333</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>321</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>312</v>
+      </c>
+      <c r="G92" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" t="s">
+        <v>122</v>
+      </c>
+      <c r="B93" t="s">
+        <v>333</v>
+      </c>
+      <c r="C93" t="s">
+        <v>325</v>
+      </c>
+      <c r="E93" s="4" t="s">
+        <v>313</v>
+      </c>
+      <c r="G93" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" t="s">
+        <v>105</v>
+      </c>
+      <c r="B94" t="s">
+        <v>333</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>314</v>
+      </c>
+      <c r="G94" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" t="s">
+        <v>110</v>
+      </c>
+      <c r="B95" t="s">
+        <v>333</v>
+      </c>
+      <c r="G95" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" t="s">
+        <v>98</v>
+      </c>
+      <c r="G96" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" t="s">
+        <v>99</v>
+      </c>
+      <c r="C97" t="s">
+        <v>267</v>
+      </c>
+      <c r="E97" t="s">
+        <v>267</v>
+      </c>
+      <c r="G97" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" t="s">
+        <v>71</v>
+      </c>
+      <c r="C98" t="s">
+        <v>267</v>
+      </c>
+      <c r="E98" t="s">
+        <v>267</v>
+      </c>
+      <c r="G98" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" t="s">
+        <v>73</v>
+      </c>
+      <c r="C99" t="s">
+        <v>268</v>
+      </c>
+      <c r="E99" t="s">
+        <v>268</v>
+      </c>
+      <c r="G99" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" t="s">
+        <v>75</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="G100" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" t="s">
         <v>250</v>
       </c>
-      <c r="D50" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>54</v>
-      </c>
-      <c r="D51" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>59</v>
-      </c>
-      <c r="B53" s="6">
-        <v>128</v>
-      </c>
-      <c r="D53" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>62</v>
-      </c>
-      <c r="B54" s="6">
-        <v>5</v>
-      </c>
-      <c r="D54" s="5">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A55" t="s">
-        <v>306</v>
-      </c>
-      <c r="B55" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="D55" s="8" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A56" t="s">
-        <v>253</v>
-      </c>
-      <c r="B56" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="D56" s="8" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" t="s">
+      <c r="C101" t="s">
+        <v>251</v>
+      </c>
+      <c r="E101" s="4" t="s">
         <v>252</v>
       </c>
-      <c r="D57" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
-        <v>161</v>
-      </c>
-      <c r="B58" t="s">
-        <v>227</v>
-      </c>
-      <c r="D58" t="s">
-        <v>227</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
-        <v>164</v>
-      </c>
-      <c r="B59" t="s">
-        <v>251</v>
-      </c>
-      <c r="D59" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
-        <v>163</v>
-      </c>
-      <c r="B60" t="s">
-        <v>237</v>
-      </c>
-      <c r="D60" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
-        <v>239</v>
-      </c>
-      <c r="D61" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
-        <v>65</v>
-      </c>
-      <c r="D63" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
-        <v>107</v>
-      </c>
-      <c r="B65" s="4" t="s">
-        <v>266</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
-        <v>111</v>
-      </c>
-      <c r="B66" s="4" t="s">
-        <v>262</v>
-      </c>
-      <c r="D66" s="4" t="s">
-        <v>288</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A67" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" t="s">
-        <v>263</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A68" t="s">
-        <v>113</v>
-      </c>
-      <c r="B68" s="4" t="s">
-        <v>261</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A69" t="s">
-        <v>115</v>
-      </c>
-      <c r="B69" t="s">
-        <v>264</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A70" t="s">
-        <v>117</v>
-      </c>
-      <c r="B70" t="s">
-        <v>265</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>292</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A71" t="s">
-        <v>109</v>
-      </c>
-      <c r="B71" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A72" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A73" t="s">
-        <v>124</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A74" t="s">
-        <v>131</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A75" t="s">
+      <c r="G101" t="s">
         <v>257</v>
       </c>
-      <c r="B75" t="s">
-        <v>259</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A76" t="s">
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A102" t="s">
+        <v>248</v>
+      </c>
+      <c r="C102" s="6">
+        <v>4</v>
+      </c>
+      <c r="D102" s="6"/>
+      <c r="E102" s="6">
+        <v>4</v>
+      </c>
+      <c r="F102" s="6"/>
+      <c r="G102" t="s">
         <v>258</v>
       </c>
-      <c r="B76" t="s">
-        <v>260</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A77" t="s">
-        <v>69</v>
-      </c>
-      <c r="D77" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A78" t="s">
-        <v>135</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A79" t="s">
-        <v>136</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A80" t="s">
-        <v>137</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" t="s">
-        <v>138</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" t="s">
-        <v>139</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" t="s">
-        <v>140</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" t="s">
-        <v>119</v>
-      </c>
-      <c r="B84" t="s">
-        <v>269</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" t="s">
-        <v>120</v>
-      </c>
-      <c r="B85" t="s">
-        <v>270</v>
-      </c>
-      <c r="D85" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A86" t="s">
-        <v>121</v>
-      </c>
-      <c r="B86" t="s">
-        <v>271</v>
-      </c>
-      <c r="D86" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A87" t="s">
-        <v>103</v>
-      </c>
-      <c r="B87" s="4" t="s">
-        <v>267</v>
-      </c>
-      <c r="D87" s="4" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" t="s">
-        <v>122</v>
-      </c>
-      <c r="B88" t="s">
-        <v>268</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" t="s">
-        <v>105</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" t="s">
-        <v>99</v>
-      </c>
-      <c r="B92" t="s">
-        <v>244</v>
-      </c>
-      <c r="D92" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" t="s">
-        <v>71</v>
-      </c>
-      <c r="B93" t="s">
-        <v>244</v>
-      </c>
-      <c r="D93" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" t="s">
-        <v>73</v>
-      </c>
-      <c r="B94" t="s">
-        <v>245</v>
-      </c>
-      <c r="D94" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" t="s">
-        <v>249</v>
-      </c>
-      <c r="B95" s="6">
-        <v>4</v>
-      </c>
-      <c r="C95" s="6"/>
-      <c r="D95" s="6">
-        <v>4</v>
-      </c>
-      <c r="E95" s="6"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" t="s">
-        <v>75</v>
-      </c>
-      <c r="D96" s="4" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A99" s="9" t="s">
-        <v>247</v>
-      </c>
-    </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A100" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A103" s="9" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="104" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A104" t="s">
-        <v>273</v>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D103" s="4"/>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" s="9" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" s="9" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" t="s">
+        <v>233</v>
       </c>
     </row>
   </sheetData>

--- a/docs/grammar.xlsx
+++ b/docs/grammar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan Munro\Dropbox\dev\lazarus\computing\z80\xa80\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B851720B-E753-4DF1-90CC-BD8DA78AEA3E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BD382-7981-4FAD-B3F2-172AF953F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2688" yWindow="408" windowWidth="20004" windowHeight="11832" activeTab="1" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
+    <workbookView xWindow="1920" yWindow="408" windowWidth="20004" windowHeight="11832" activeTab="1" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="667" uniqueCount="334">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="337">
   <si>
     <t>Sub-option</t>
   </si>
@@ -1050,6 +1050,15 @@
   </si>
   <si>
     <t>Expression Operand</t>
+  </si>
+  <si>
+    <t>FilenameQuoting</t>
+  </si>
+  <si>
+    <t>Never / Optional / Mandatory</t>
+  </si>
+  <si>
+    <t>Decides if quoting is needed for filenames used with include directives. Quotes are defined by the StringTerminator entry</t>
   </si>
 </sst>
 </file>
@@ -1155,10 +1164,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}" name="Table1" displayName="Table1" ref="A3:C89" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A3:C89" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C89">
-    <sortCondition ref="A3:A89"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}" name="Table1" displayName="Table1" ref="A3:C90" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A3:C90" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C90">
+    <sortCondition ref="A3:A90"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BDD6E3B8-3C55-4926-9439-302BF746CC1F}" name="Sub-option" dataDxfId="2"/>
@@ -1170,10 +1179,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:H102" totalsRowShown="0">
-  <autoFilter ref="A3:H102" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F102">
-    <sortCondition ref="A4:A102"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:H103" totalsRowShown="0">
+  <autoFilter ref="A3:H103" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F103">
+    <sortCondition ref="A4:A103"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{89255D4C-25D0-468B-8E6A-24B936C6C9CD}" name="Sub-option"/>
@@ -1486,10 +1495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0613FF5-2B04-45AD-9F67-606697632ED3}">
-  <dimension ref="A1:C89"/>
+  <dimension ref="A1:C90"/>
   <sheetViews>
-    <sheetView topLeftCell="A53" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+    <sheetView topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1944,520 +1953,531 @@
         <v>134</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>86</v>
+        <v>334</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>55</v>
+        <v>335</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>87</v>
+        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C44" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C45" s="3" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="2" t="s">
+    <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="B45" s="3" t="s">
+      <c r="B46" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C45" s="3" t="s">
+      <c r="C46" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="2" t="s">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>50</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A47" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="B47" s="3" t="s">
         <v>48</v>
       </c>
       <c r="C47" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" s="3" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="48" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A48" s="2" t="s">
+    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="B48" s="3" t="s">
+      <c r="B49" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="C48" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C50" s="3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" s="3" t="s">
         <v>58</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A51" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B51" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C51" s="3" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>60</v>
       </c>
       <c r="C52" s="3" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C53" s="3" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="B53" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>209</v>
       </c>
-      <c r="C53" s="3" t="s">
+      <c r="C54" s="3" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A54" s="2" t="s">
+    <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
         <v>161</v>
       </c>
-      <c r="B54" s="3" t="s">
+      <c r="B55" s="3" t="s">
         <v>210</v>
       </c>
-      <c r="C54" s="3" t="s">
+      <c r="C55" s="3" t="s">
         <v>212</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A55" s="2" t="s">
+    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="B55" s="3" t="s">
+      <c r="B56" s="3" t="s">
         <v>213</v>
       </c>
-      <c r="C55" s="3" t="s">
+      <c r="C56" s="3" t="s">
         <v>214</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A56" s="2" t="s">
+    <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="B56" s="3" t="s">
+      <c r="B57" s="3" t="s">
         <v>215</v>
       </c>
-      <c r="C56" s="3" t="s">
+      <c r="C57" s="3" t="s">
         <v>216</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A57" s="2" t="s">
-        <v>219</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>220</v>
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B58" s="3" t="s">
         <v>55</v>
       </c>
       <c r="C58" s="3" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C59" s="3" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A59" s="2" t="s">
+    <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="3" t="s">
+      <c r="B60" s="3" t="s">
         <v>221</v>
       </c>
-      <c r="C59" s="3" t="s">
+      <c r="C60" s="3" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>107</v>
+        <v>67</v>
       </c>
       <c r="B61" s="3" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="C61" s="3" t="s">
-        <v>81</v>
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>112</v>
+        <v>81</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B63" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C63" s="3" t="s">
-        <v>82</v>
+        <v>112</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B64" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>114</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>102</v>
+        <v>118</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>130</v>
+        <v>102</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B69" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="B70" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C70" s="3" t="s">
+      <c r="B71" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
+    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B71" s="3" t="s">
+      <c r="B72" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C71" s="3" t="s">
+      <c r="C72" s="3" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A72" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="B72" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C72" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>128</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>104</v>
+        <v>126</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>123</v>
+        <v>104</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>83</v>
+        <v>106</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="B85" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
         <v>98</v>
-      </c>
-      <c r="B85" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C85" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A86" s="2" t="s">
-        <v>99</v>
       </c>
       <c r="B86" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C89" s="3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="B90" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C90" s="3" t="s">
         <v>76</v>
       </c>
     </row>
@@ -2471,10 +2491,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FCB35D-BE1B-4C90-A6F7-1F428FFFD6EB}">
-  <dimension ref="A1:H111"/>
+  <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A50" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="C51" sqref="C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3154,27 +3174,27 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>86</v>
-      </c>
-      <c r="B48" t="s">
-        <v>333</v>
+        <v>334</v>
+      </c>
+      <c r="C48" t="s">
+        <v>195</v>
       </c>
       <c r="E48" t="s">
-        <v>285</v>
+        <v>195</v>
       </c>
       <c r="G48" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B49" t="s">
         <v>333</v>
       </c>
       <c r="E49" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G49" t="s">
         <v>263</v>
@@ -3182,32 +3202,35 @@
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>198</v>
+        <v>84</v>
+      </c>
+      <c r="B50" t="s">
+        <v>333</v>
+      </c>
+      <c r="E50" t="s">
+        <v>286</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>263</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>50</v>
-      </c>
-      <c r="E51" t="s">
-        <v>200</v>
+        <v>45</v>
+      </c>
+      <c r="E51" s="4" t="s">
+        <v>198</v>
       </c>
       <c r="G51" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="E52" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G52" t="s">
         <v>262</v>
@@ -3215,27 +3238,24 @@
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>245</v>
-      </c>
-      <c r="C53" t="s">
-        <v>247</v>
+        <v>47</v>
       </c>
       <c r="E53" t="s">
-        <v>247</v>
+        <v>199</v>
       </c>
       <c r="G53" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C54" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>247</v>
       </c>
       <c r="G54" t="s">
         <v>260</v>
@@ -3243,18 +3263,24 @@
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>54</v>
+        <v>246</v>
+      </c>
+      <c r="C55" t="s">
+        <v>225</v>
       </c>
       <c r="E55" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="G55" t="s">
-        <v>55</v>
+        <v>260</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>57</v>
+        <v>54</v>
+      </c>
+      <c r="E56" t="s">
+        <v>203</v>
       </c>
       <c r="G56" t="s">
         <v>55</v>
@@ -3262,24 +3288,18 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>59</v>
-      </c>
-      <c r="C57" s="6">
-        <v>128</v>
-      </c>
-      <c r="E57" s="5">
-        <v>128</v>
+        <v>57</v>
       </c>
       <c r="G57" t="s">
-        <v>258</v>
+        <v>55</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C58" s="6">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E58" s="5">
         <v>128</v>
@@ -3290,64 +3310,61 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>243</v>
-      </c>
-      <c r="C59" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E59" s="8" t="s">
-        <v>198</v>
+        <v>62</v>
+      </c>
+      <c r="C59" s="6">
+        <v>5</v>
+      </c>
+      <c r="E59" s="5">
+        <v>128</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>258</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>228</v>
-      </c>
-      <c r="B60" t="s">
-        <v>333</v>
+        <v>243</v>
       </c>
       <c r="C60" s="7" t="s">
-        <v>229</v>
+        <v>244</v>
       </c>
       <c r="E60" s="8" t="s">
-        <v>264</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s">
-        <v>262</v>
+        <v>46</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>162</v>
+        <v>228</v>
       </c>
       <c r="B61" t="s">
         <v>333</v>
       </c>
-      <c r="C61" t="s">
-        <v>227</v>
-      </c>
-      <c r="E61" t="s">
-        <v>287</v>
+      <c r="C61" s="7" t="s">
+        <v>229</v>
+      </c>
+      <c r="E61" s="8" t="s">
+        <v>264</v>
       </c>
       <c r="G61" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B62" t="s">
         <v>333</v>
       </c>
       <c r="C62" t="s">
-        <v>208</v>
+        <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G62" t="s">
         <v>259</v>
@@ -3355,16 +3372,16 @@
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B63" t="s">
         <v>333</v>
       </c>
       <c r="C63" t="s">
-        <v>226</v>
+        <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G63" t="s">
         <v>259</v>
@@ -3372,13 +3389,16 @@
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>163</v>
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
+        <v>333</v>
       </c>
       <c r="C64" t="s">
-        <v>217</v>
+        <v>226</v>
       </c>
       <c r="E64" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G64" t="s">
         <v>259</v>
@@ -3386,18 +3406,24 @@
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>219</v>
+        <v>163</v>
+      </c>
+      <c r="C65" t="s">
+        <v>217</v>
       </c>
       <c r="E65" t="s">
-        <v>222</v>
+        <v>290</v>
       </c>
       <c r="G65" t="s">
-        <v>55</v>
+        <v>259</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>218</v>
+        <v>219</v>
+      </c>
+      <c r="E66" t="s">
+        <v>222</v>
       </c>
       <c r="G66" t="s">
         <v>55</v>
@@ -3405,26 +3431,26 @@
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>65</v>
-      </c>
-      <c r="E67" t="s">
-        <v>265</v>
+        <v>218</v>
       </c>
       <c r="G67" t="s">
-        <v>266</v>
+        <v>55</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>67</v>
+        <v>65</v>
+      </c>
+      <c r="E68" t="s">
+        <v>265</v>
       </c>
       <c r="G68" t="s">
-        <v>55</v>
+        <v>266</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>249</v>
+        <v>67</v>
       </c>
       <c r="G69" t="s">
         <v>55</v>
@@ -3432,33 +3458,24 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>107</v>
-      </c>
-      <c r="B70" t="s">
-        <v>333</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>315</v>
-      </c>
-      <c r="E70" s="4" t="s">
-        <v>291</v>
+        <v>249</v>
       </c>
       <c r="G70" t="s">
-        <v>263</v>
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="B71" t="s">
         <v>333</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G71" t="s">
         <v>263</v>
@@ -3466,16 +3483,16 @@
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B72" t="s">
         <v>333</v>
       </c>
-      <c r="C72" t="s">
-        <v>317</v>
+      <c r="C72" s="4" t="s">
+        <v>316</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G72" t="s">
         <v>263</v>
@@ -3483,16 +3500,16 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="B73" t="s">
         <v>333</v>
       </c>
-      <c r="C73" s="4" t="s">
-        <v>318</v>
+      <c r="C73" t="s">
+        <v>317</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G73" t="s">
         <v>263</v>
@@ -3500,16 +3517,16 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B74" t="s">
         <v>333</v>
       </c>
-      <c r="C74" t="s">
-        <v>319</v>
+      <c r="C74" s="4" t="s">
+        <v>318</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="G74" t="s">
         <v>263</v>
@@ -3517,16 +3534,16 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B75" t="s">
         <v>333</v>
       </c>
       <c r="C75" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="G75" t="s">
         <v>263</v>
@@ -3534,16 +3551,16 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>109</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
         <v>333</v>
       </c>
-      <c r="C76" s="4" t="s">
-        <v>321</v>
+      <c r="C76" t="s">
+        <v>320</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="G76" t="s">
         <v>263</v>
@@ -3551,13 +3568,16 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>129</v>
+        <v>109</v>
       </c>
       <c r="B77" t="s">
         <v>333</v>
       </c>
+      <c r="C77" s="4" t="s">
+        <v>321</v>
+      </c>
       <c r="E77" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="G77" t="s">
         <v>263</v>
@@ -3565,13 +3585,13 @@
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B78" t="s">
         <v>333</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="G78" t="s">
         <v>263</v>
@@ -3579,13 +3599,13 @@
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>131</v>
+        <v>124</v>
       </c>
       <c r="B79" t="s">
         <v>333</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="G79" t="s">
         <v>263</v>
@@ -3593,16 +3613,13 @@
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>231</v>
+        <v>131</v>
       </c>
       <c r="B80" t="s">
         <v>333</v>
       </c>
-      <c r="C80" t="s">
-        <v>301</v>
-      </c>
       <c r="E80" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="G80" t="s">
         <v>263</v>
@@ -3610,16 +3627,16 @@
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="B81" t="s">
         <v>333</v>
       </c>
       <c r="C81" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="G81" t="s">
         <v>263</v>
@@ -3627,41 +3644,44 @@
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>69</v>
+        <v>230</v>
       </c>
       <c r="B82" t="s">
         <v>333</v>
       </c>
-      <c r="E82" t="s">
-        <v>195</v>
+      <c r="C82" t="s">
+        <v>302</v>
+      </c>
+      <c r="E82" s="4" t="s">
+        <v>302</v>
       </c>
       <c r="G82" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>135</v>
+        <v>69</v>
       </c>
       <c r="B83" t="s">
         <v>333</v>
       </c>
-      <c r="E83" s="4" t="s">
-        <v>303</v>
+      <c r="E83" t="s">
+        <v>195</v>
       </c>
       <c r="G83" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B84" t="s">
         <v>333</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="G84" t="s">
         <v>263</v>
@@ -3669,13 +3689,13 @@
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B85" t="s">
         <v>333</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="G85" t="s">
         <v>263</v>
@@ -3683,13 +3703,13 @@
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B86" t="s">
         <v>333</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="G86" t="s">
         <v>263</v>
@@ -3697,13 +3717,13 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B87" t="s">
         <v>333</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="G87" t="s">
         <v>263</v>
@@ -3711,13 +3731,13 @@
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B88" t="s">
         <v>333</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="G88" t="s">
         <v>263</v>
@@ -3725,16 +3745,13 @@
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>119</v>
+        <v>140</v>
       </c>
       <c r="B89" t="s">
         <v>333</v>
       </c>
-      <c r="C89" t="s">
-        <v>322</v>
-      </c>
       <c r="E89" s="4" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="G89" t="s">
         <v>263</v>
@@ -3742,16 +3759,16 @@
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B90" t="s">
         <v>333</v>
       </c>
       <c r="C90" t="s">
-        <v>323</v>
-      </c>
-      <c r="E90" t="s">
-        <v>310</v>
+        <v>322</v>
+      </c>
+      <c r="E90" s="4" t="s">
+        <v>309</v>
       </c>
       <c r="G90" t="s">
         <v>263</v>
@@ -3759,16 +3776,16 @@
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B91" t="s">
         <v>333</v>
       </c>
       <c r="C91" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="E91" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="G91" t="s">
         <v>263</v>
@@ -3776,16 +3793,16 @@
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>103</v>
+        <v>121</v>
       </c>
       <c r="B92" t="s">
         <v>333</v>
       </c>
-      <c r="C92" s="4" t="s">
-        <v>321</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>312</v>
+      <c r="C92" t="s">
+        <v>324</v>
+      </c>
+      <c r="E92" t="s">
+        <v>311</v>
       </c>
       <c r="G92" t="s">
         <v>263</v>
@@ -3793,16 +3810,16 @@
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>122</v>
+        <v>103</v>
       </c>
       <c r="B93" t="s">
         <v>333</v>
       </c>
-      <c r="C93" t="s">
-        <v>325</v>
+      <c r="C93" s="4" t="s">
+        <v>321</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="G93" t="s">
         <v>263</v>
@@ -3810,13 +3827,16 @@
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B94" t="s">
         <v>333</v>
       </c>
+      <c r="C94" t="s">
+        <v>325</v>
+      </c>
       <c r="E94" s="4" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G94" t="s">
         <v>263</v>
@@ -3824,32 +3844,32 @@
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
       <c r="B95" t="s">
         <v>333</v>
       </c>
+      <c r="E95" s="4" t="s">
+        <v>314</v>
+      </c>
       <c r="G95" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>110</v>
+      </c>
+      <c r="B96" t="s">
+        <v>333</v>
       </c>
       <c r="G96" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>99</v>
-      </c>
-      <c r="C97" t="s">
-        <v>267</v>
-      </c>
-      <c r="E97" t="s">
-        <v>267</v>
+        <v>98</v>
       </c>
       <c r="G97" t="s">
         <v>262</v>
@@ -3857,7 +3877,7 @@
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>71</v>
+        <v>99</v>
       </c>
       <c r="C98" t="s">
         <v>267</v>
@@ -3871,13 +3891,13 @@
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="E99" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G99" t="s">
         <v>262</v>
@@ -3885,10 +3905,13 @@
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>75</v>
-      </c>
-      <c r="E100" s="4" t="s">
-        <v>264</v>
+        <v>73</v>
+      </c>
+      <c r="C100" t="s">
+        <v>268</v>
+      </c>
+      <c r="E100" t="s">
+        <v>268</v>
       </c>
       <c r="G100" t="s">
         <v>262</v>
@@ -3896,54 +3919,65 @@
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>250</v>
-      </c>
-      <c r="C101" t="s">
-        <v>251</v>
+        <v>75</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>252</v>
+        <v>264</v>
       </c>
       <c r="G101" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
+        <v>250</v>
+      </c>
+      <c r="C102" t="s">
+        <v>251</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>252</v>
+      </c>
+      <c r="G102" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A103" t="s">
         <v>248</v>
       </c>
-      <c r="C102" s="6">
-        <v>4</v>
-      </c>
-      <c r="D102" s="6"/>
-      <c r="E102" s="6">
-        <v>4</v>
-      </c>
-      <c r="F102" s="6"/>
-      <c r="G102" t="s">
+      <c r="C103" s="6">
+        <v>4</v>
+      </c>
+      <c r="D103" s="6"/>
+      <c r="E103" s="6">
+        <v>4</v>
+      </c>
+      <c r="F103" s="6"/>
+      <c r="G103" t="s">
         <v>258</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D103" s="4"/>
-    </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A106" s="9" t="s">
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D104" s="4"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" s="9" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" t="s">
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
         <v>224</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A110" s="9" t="s">
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A111" s="9" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" t="s">
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A112" t="s">
         <v>233</v>
       </c>
     </row>

--- a/docs/grammar.xlsx
+++ b/docs/grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan Munro\Dropbox\dev\lazarus\computing\z80\xa80\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B8BD382-7981-4FAD-B3F2-172AF953F158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E131BD-ECB7-41CF-BAED-B338B768434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="408" windowWidth="20004" windowHeight="11832" activeTab="1" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
   </bookViews>
@@ -905,12 +905,6 @@
     <t>octal|Xhex|xhex</t>
   </si>
   <si>
-    <t>HIGH(|[2]</t>
-  </si>
-  <si>
-    <t>LOW(|[2]</t>
-  </si>
-  <si>
     <t>0bnnnn|0Bnnnn|nnnnb|nnnnB</t>
   </si>
   <si>
@@ -1059,6 +1053,12 @@
   </si>
   <si>
     <t>Decides if quoting is needed for filenames used with include directives. Quotes are defined by the StringTerminator entry</t>
+  </si>
+  <si>
+    <t>HIGH(</t>
+  </si>
+  <si>
+    <t>LOW(</t>
   </si>
 </sst>
 </file>
@@ -1955,13 +1955,13 @@
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>333</v>
+      </c>
+      <c r="C43" s="3" t="s">
         <v>334</v>
-      </c>
-      <c r="B43" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>336</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
@@ -2493,8 +2493,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FCB35D-BE1B-4C90-A6F7-1F428FFFD6EB}">
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="C51" sqref="C51"/>
+    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2519,7 +2519,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="C3" t="s">
         <v>176</v>
@@ -2559,7 +2559,7 @@
         <v>147</v>
       </c>
       <c r="B5" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C5" t="s">
         <v>180</v>
@@ -2573,7 +2573,7 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C6" t="s">
         <v>234</v>
@@ -2590,7 +2590,7 @@
         <v>149</v>
       </c>
       <c r="B7" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C7" t="s">
         <v>235</v>
@@ -2607,7 +2607,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E8" t="s">
         <v>271</v>
@@ -2621,7 +2621,7 @@
         <v>10</v>
       </c>
       <c r="B9" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E9" t="s">
         <v>272</v>
@@ -2635,7 +2635,7 @@
         <v>12</v>
       </c>
       <c r="B10" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E10" t="s">
         <v>273</v>
@@ -2649,7 +2649,7 @@
         <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C11" t="s">
         <v>236</v>
@@ -2666,7 +2666,7 @@
         <v>16</v>
       </c>
       <c r="B12" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E12" t="s">
         <v>275</v>
@@ -2680,7 +2680,7 @@
         <v>90</v>
       </c>
       <c r="B13" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E13" t="s">
         <v>182</v>
@@ -2694,7 +2694,7 @@
         <v>18</v>
       </c>
       <c r="B14" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C14" t="s">
         <v>183</v>
@@ -2711,7 +2711,7 @@
         <v>92</v>
       </c>
       <c r="B15" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C15" t="s">
         <v>184</v>
@@ -2728,7 +2728,7 @@
         <v>20</v>
       </c>
       <c r="B16" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C16" t="s">
         <v>185</v>
@@ -2745,7 +2745,7 @@
         <v>22</v>
       </c>
       <c r="B17" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E17" t="s">
         <v>201</v>
@@ -2756,13 +2756,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B18" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E18" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="G18" t="s">
         <v>259</v>
@@ -2773,7 +2773,7 @@
         <v>24</v>
       </c>
       <c r="B19" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C19" t="s">
         <v>237</v>
@@ -2790,7 +2790,7 @@
         <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E20" t="s">
         <v>186</v>
@@ -2804,7 +2804,7 @@
         <v>173</v>
       </c>
       <c r="B21" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E21" t="s">
         <v>276</v>
@@ -2818,7 +2818,7 @@
         <v>171</v>
       </c>
       <c r="B22" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E22" t="s">
         <v>202</v>
@@ -2832,7 +2832,7 @@
         <v>88</v>
       </c>
       <c r="B23" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C23" t="s">
         <v>187</v>
@@ -2849,7 +2849,7 @@
         <v>94</v>
       </c>
       <c r="B24" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E24" t="s">
         <v>188</v>
@@ -2863,7 +2863,7 @@
         <v>96</v>
       </c>
       <c r="B25" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E25" t="s">
         <v>189</v>
@@ -2877,7 +2877,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E26" t="s">
         <v>190</v>
@@ -2891,7 +2891,7 @@
         <v>240</v>
       </c>
       <c r="B27" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C27" t="s">
         <v>181</v>
@@ -2908,7 +2908,7 @@
         <v>155</v>
       </c>
       <c r="B28" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E28" t="s">
         <v>191</v>
@@ -2922,7 +2922,7 @@
         <v>159</v>
       </c>
       <c r="B29" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C29" t="s">
         <v>238</v>
@@ -2939,7 +2939,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E30" t="s">
         <v>278</v>
@@ -2953,7 +2953,7 @@
         <v>169</v>
       </c>
       <c r="B31" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E31" t="s">
         <v>279</v>
@@ -2967,7 +2967,7 @@
         <v>168</v>
       </c>
       <c r="B32" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E32" t="s">
         <v>280</v>
@@ -2981,7 +2981,7 @@
         <v>167</v>
       </c>
       <c r="B33" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E33" t="s">
         <v>281</v>
@@ -2995,13 +2995,13 @@
         <v>30</v>
       </c>
       <c r="B34" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="C34" t="s">
         <v>192</v>
       </c>
       <c r="E34" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="G34" t="s">
         <v>259</v>
@@ -3012,7 +3012,7 @@
         <v>156</v>
       </c>
       <c r="B35" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E35" t="s">
         <v>193</v>
@@ -3026,7 +3026,7 @@
         <v>152</v>
       </c>
       <c r="B36" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E36" t="s">
         <v>194</v>
@@ -3037,13 +3037,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B37" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="E37" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="G37" t="s">
         <v>259</v>
@@ -3174,7 +3174,7 @@
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="C48" t="s">
         <v>195</v>
@@ -3191,10 +3191,10 @@
         <v>86</v>
       </c>
       <c r="B49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E49" t="s">
-        <v>285</v>
+        <v>335</v>
       </c>
       <c r="G49" t="s">
         <v>263</v>
@@ -3205,10 +3205,10 @@
         <v>84</v>
       </c>
       <c r="B50" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E50" t="s">
-        <v>286</v>
+        <v>336</v>
       </c>
       <c r="G50" t="s">
         <v>263</v>
@@ -3341,7 +3341,7 @@
         <v>228</v>
       </c>
       <c r="B61" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C61" s="7" t="s">
         <v>229</v>
@@ -3358,13 +3358,13 @@
         <v>162</v>
       </c>
       <c r="B62" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C62" t="s">
         <v>227</v>
       </c>
       <c r="E62" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="G62" t="s">
         <v>259</v>
@@ -3375,13 +3375,13 @@
         <v>161</v>
       </c>
       <c r="B63" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C63" t="s">
         <v>208</v>
       </c>
       <c r="E63" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="G63" t="s">
         <v>259</v>
@@ -3392,13 +3392,13 @@
         <v>164</v>
       </c>
       <c r="B64" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C64" t="s">
         <v>226</v>
       </c>
       <c r="E64" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="G64" t="s">
         <v>259</v>
@@ -3412,7 +3412,7 @@
         <v>217</v>
       </c>
       <c r="E65" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="G65" t="s">
         <v>259</v>
@@ -3469,13 +3469,13 @@
         <v>107</v>
       </c>
       <c r="B71" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C71" s="4" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="E71" s="4" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="G71" t="s">
         <v>263</v>
@@ -3486,13 +3486,13 @@
         <v>111</v>
       </c>
       <c r="B72" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C72" s="4" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="E72" s="4" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="G72" t="s">
         <v>263</v>
@@ -3503,13 +3503,13 @@
         <v>108</v>
       </c>
       <c r="B73" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C73" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="E73" s="4" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="G73" t="s">
         <v>263</v>
@@ -3520,13 +3520,13 @@
         <v>113</v>
       </c>
       <c r="B74" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="G74" t="s">
         <v>263</v>
@@ -3537,13 +3537,13 @@
         <v>115</v>
       </c>
       <c r="B75" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C75" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="G75" t="s">
         <v>263</v>
@@ -3554,13 +3554,13 @@
         <v>117</v>
       </c>
       <c r="B76" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C76" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="G76" t="s">
         <v>263</v>
@@ -3571,13 +3571,13 @@
         <v>109</v>
       </c>
       <c r="B77" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="G77" t="s">
         <v>263</v>
@@ -3588,10 +3588,10 @@
         <v>129</v>
       </c>
       <c r="B78" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="G78" t="s">
         <v>263</v>
@@ -3602,10 +3602,10 @@
         <v>124</v>
       </c>
       <c r="B79" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="G79" t="s">
         <v>263</v>
@@ -3616,10 +3616,10 @@
         <v>131</v>
       </c>
       <c r="B80" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="G80" t="s">
         <v>263</v>
@@ -3630,13 +3630,13 @@
         <v>231</v>
       </c>
       <c r="B81" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C81" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="G81" t="s">
         <v>263</v>
@@ -3647,13 +3647,13 @@
         <v>230</v>
       </c>
       <c r="B82" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C82" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="G82" t="s">
         <v>263</v>
@@ -3664,7 +3664,7 @@
         <v>69</v>
       </c>
       <c r="B83" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E83" t="s">
         <v>195</v>
@@ -3678,10 +3678,10 @@
         <v>135</v>
       </c>
       <c r="B84" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="G84" t="s">
         <v>263</v>
@@ -3692,10 +3692,10 @@
         <v>136</v>
       </c>
       <c r="B85" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="G85" t="s">
         <v>263</v>
@@ -3706,10 +3706,10 @@
         <v>137</v>
       </c>
       <c r="B86" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G86" t="s">
         <v>263</v>
@@ -3720,10 +3720,10 @@
         <v>138</v>
       </c>
       <c r="B87" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="G87" t="s">
         <v>263</v>
@@ -3734,10 +3734,10 @@
         <v>139</v>
       </c>
       <c r="B88" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="G88" t="s">
         <v>263</v>
@@ -3748,10 +3748,10 @@
         <v>140</v>
       </c>
       <c r="B89" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="G89" t="s">
         <v>263</v>
@@ -3762,13 +3762,13 @@
         <v>119</v>
       </c>
       <c r="B90" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C90" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="G90" t="s">
         <v>263</v>
@@ -3779,13 +3779,13 @@
         <v>120</v>
       </c>
       <c r="B91" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C91" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="E91" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="G91" t="s">
         <v>263</v>
@@ -3796,13 +3796,13 @@
         <v>121</v>
       </c>
       <c r="B92" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C92" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="E92" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="G92" t="s">
         <v>263</v>
@@ -3813,13 +3813,13 @@
         <v>103</v>
       </c>
       <c r="B93" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C93" s="4" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="G93" t="s">
         <v>263</v>
@@ -3830,13 +3830,13 @@
         <v>122</v>
       </c>
       <c r="B94" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="C94" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G94" t="s">
         <v>263</v>
@@ -3847,10 +3847,10 @@
         <v>105</v>
       </c>
       <c r="B95" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="G95" t="s">
         <v>263</v>
@@ -3861,7 +3861,7 @@
         <v>110</v>
       </c>
       <c r="B96" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="G96" t="s">
         <v>263</v>

--- a/docs/grammar.xlsx
+++ b/docs/grammar.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan Munro\Dropbox\dev\lazarus\computing\z80\xa80\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91E131BD-ECB7-41CF-BAED-B338B768434B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76407D06-2660-45FD-8D0A-6C21DE8035DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="408" windowWidth="20004" windowHeight="11832" activeTab="1" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
+    <workbookView xWindow="1920" yWindow="408" windowWidth="20004" windowHeight="11832" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="674" uniqueCount="337">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="352">
   <si>
     <t>Sub-option</t>
   </si>
@@ -56,12 +56,6 @@
     <t>Define Bytes command, e.g. DB;DEFB;DC</t>
   </si>
   <si>
-    <t>CmdDefineMacro</t>
-  </si>
-  <si>
-    <t>Define Macro command e.g. MACRO;DEFMACRO</t>
-  </si>
-  <si>
     <t>CmdDefineString</t>
   </si>
   <si>
@@ -194,12 +188,6 @@
     <t>Characters which can come after the first character of the label</t>
   </si>
   <si>
-    <t>LabelColonRule</t>
-  </si>
-  <si>
-    <t>Determines if the colon character : is allowed in labels</t>
-  </si>
-  <si>
     <t>LabelLocalPrefix</t>
   </si>
   <si>
@@ -275,9 +263,6 @@
     <t>Disallowed / Optional /Mandated</t>
   </si>
   <si>
-    <t>Disallowed / Optional /Mandated / Mandated on indent</t>
-  </si>
-  <si>
     <t>True if label processing is case sensitive for this grammar profile. Can be overridden by the command line and environment variable</t>
   </si>
   <si>
@@ -657,6 +642,429 @@
   </si>
   <si>
     <t>Type of escaped numbers allowed to create characters, e.g. \033 or \x1B for escape</t>
+  </si>
+  <si>
+    <t>nnnn nnnnd nnnnD</t>
+  </si>
+  <si>
+    <t>String showing binary formats</t>
+  </si>
+  <si>
+    <t>String showing decimal formats</t>
+  </si>
+  <si>
+    <t>String showing hex formats. If nnnnh or nnnnH is used the first character must be a digit to avoid the input being parsed as a label</t>
+  </si>
+  <si>
+    <t>String showing octal formats</t>
+  </si>
+  <si>
+    <t>nnnnO nnnno nnnnQ nnnnq</t>
+  </si>
+  <si>
+    <t>MacroLabelPrefixL</t>
+  </si>
+  <si>
+    <t>MacroLabelPrefixG</t>
+  </si>
+  <si>
+    <t>Prefix, if used, for global labels in a macro, e.g. @@ or %</t>
+  </si>
+  <si>
+    <t>Choice of: Always global / Global if prefixed / Local if prefixed / Always local</t>
+  </si>
+  <si>
+    <t>%G%</t>
+  </si>
+  <si>
+    <t>Sources</t>
+  </si>
+  <si>
+    <t>8080 - Intel 8080 Assembly Language Programming Manual, 1975, MCS-482-0275/15K</t>
+  </si>
+  <si>
+    <t>Mandatory</t>
+  </si>
+  <si>
+    <t>nnnnh nnnnH</t>
+  </si>
+  <si>
+    <t>nnnnb nnnnB</t>
+  </si>
+  <si>
+    <t>LiteralASCIIquote</t>
+  </si>
+  <si>
+    <t>'</t>
+  </si>
+  <si>
+    <t>OpBracketOpen</t>
+  </si>
+  <si>
+    <t>OpBracketClose</t>
+  </si>
+  <si>
+    <t>Issues</t>
+  </si>
+  <si>
+    <t>i8080 assembler defines B=0, C=1, D=2…. A=7</t>
+  </si>
+  <si>
+    <t>DB</t>
+  </si>
+  <si>
+    <t>DS</t>
+  </si>
+  <si>
+    <t>DW</t>
+  </si>
+  <si>
+    <t>EQU</t>
+  </si>
+  <si>
+    <t>ORG</t>
+  </si>
+  <si>
+    <t>DefaultOrg</t>
+  </si>
+  <si>
+    <t>CmdMacroDefine</t>
+  </si>
+  <si>
+    <t>DefaultProcessor</t>
+  </si>
+  <si>
+    <t>Z80</t>
+  </si>
+  <si>
+    <t>LabelPredefineReg</t>
+  </si>
+  <si>
+    <t>True</t>
+  </si>
+  <si>
+    <t>LabelColonRuleEqu</t>
+  </si>
+  <si>
+    <t>LabelColonRuleNormal</t>
+  </si>
+  <si>
+    <t>Never</t>
+  </si>
+  <si>
+    <t>TokeniserTabSize</t>
+  </si>
+  <si>
+    <t>MacroParamUse</t>
+  </si>
+  <si>
+    <t>Title</t>
+  </si>
+  <si>
+    <t>Intel 8080 Grammar</t>
+  </si>
+  <si>
+    <t>XA80 Grammar</t>
+  </si>
+  <si>
+    <t>Author</t>
+  </si>
+  <si>
+    <t>Duncan Munro</t>
+  </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Text</t>
+  </si>
+  <si>
+    <t>Word</t>
+  </si>
+  <si>
+    <t>StringList</t>
+  </si>
+  <si>
+    <t>N/O/M</t>
+  </si>
+  <si>
+    <t>[?\"'abefnrtv]</t>
+  </si>
+  <si>
+    <t>CharSet</t>
+  </si>
+  <si>
+    <t>StringListOp</t>
+  </si>
+  <si>
+    <t>["']</t>
+  </si>
+  <si>
+    <t>Always Local</t>
+  </si>
+  <si>
+    <t>N/P/L</t>
+  </si>
+  <si>
+    <t>[/t ]</t>
+  </si>
+  <si>
+    <t>[,]</t>
+  </si>
+  <si>
+    <t>DB|DEFB</t>
+  </si>
+  <si>
+    <t>DS|DEFS</t>
+  </si>
+  <si>
+    <t>DM|DEFM</t>
+  </si>
+  <si>
+    <t>DC|DEFC</t>
+  </si>
+  <si>
+    <t>DZ|DEFZ</t>
+  </si>
+  <si>
+    <t>DW|DEFW</t>
+  </si>
+  <si>
+    <t>DD|DEFD</t>
+  </si>
+  <si>
+    <t>EXTERN|EXTERNAL</t>
+  </si>
+  <si>
+    <t>ORG|ORIGIN</t>
+  </si>
+  <si>
+    <t>RPT|REPEAT</t>
+  </si>
+  <si>
+    <t>CSEG|CODE</t>
+  </si>
+  <si>
+    <t>DSEG|DATA</t>
+  </si>
+  <si>
+    <t>USEG|UDATA</t>
+  </si>
+  <si>
+    <t>;|//</t>
+  </si>
+  <si>
+    <t>*|;|//</t>
+  </si>
+  <si>
+    <t>octal|Xhex|xhex</t>
+  </si>
+  <si>
+    <t>+|[5]</t>
+  </si>
+  <si>
+    <t>/|DIV|[3]</t>
+  </si>
+  <si>
+    <t>MOD|[3]</t>
+  </si>
+  <si>
+    <t>*|[3]</t>
+  </si>
+  <si>
+    <t>&lt;&lt;|[4]</t>
+  </si>
+  <si>
+    <t>&gt;&gt;|[4]</t>
+  </si>
+  <si>
+    <t>-|[5]</t>
+  </si>
+  <si>
+    <t>&amp;|[3]</t>
+  </si>
+  <si>
+    <t>{rule}|[5]</t>
+  </si>
+  <si>
+    <t>^|[3]</t>
+  </si>
+  <si>
+    <t>)|[1]</t>
+  </si>
+  <si>
+    <t>(|[1]</t>
+  </si>
+  <si>
+    <t>==|[6]</t>
+  </si>
+  <si>
+    <t>&gt;|[6]</t>
+  </si>
+  <si>
+    <t>&gt;=|[6]</t>
+  </si>
+  <si>
+    <t>&lt;|[6]</t>
+  </si>
+  <si>
+    <t>&lt;=|[6]</t>
+  </si>
+  <si>
+    <t>&lt;&gt;|!=|[6]</t>
+  </si>
+  <si>
+    <t>&amp;&amp;|AND|[7]</t>
+  </si>
+  <si>
+    <t>{rule}{rule}|OR|[8]</t>
+  </si>
+  <si>
+    <t>^^|XOR|[7]</t>
+  </si>
+  <si>
+    <t>-|[2]</t>
+  </si>
+  <si>
+    <t>+|[2]</t>
+  </si>
+  <si>
+    <t>+|[3]</t>
+  </si>
+  <si>
+    <t>/|[2]</t>
+  </si>
+  <si>
+    <t>MOD|[2]</t>
+  </si>
+  <si>
+    <t>*|[2]</t>
+  </si>
+  <si>
+    <t>SHL|[2]</t>
+  </si>
+  <si>
+    <t>SHR|[2]</t>
+  </si>
+  <si>
+    <t>-|[3]</t>
+  </si>
+  <si>
+    <t>AND|[5]</t>
+  </si>
+  <si>
+    <t>OR|[6]</t>
+  </si>
+  <si>
+    <t>XOR|[6]</t>
+  </si>
+  <si>
+    <t>NOT|[4]</t>
+  </si>
+  <si>
+    <t>CmdWhile</t>
+  </si>
+  <si>
+    <t>WHILE</t>
+  </si>
+  <si>
+    <t>CmdEndWhile</t>
+  </si>
+  <si>
+    <t>ENDW</t>
+  </si>
+  <si>
+    <t>SET|=</t>
+  </si>
+  <si>
+    <t>Category</t>
+  </si>
+  <si>
+    <t>Directive</t>
+  </si>
+  <si>
+    <t>FilenameQuoting</t>
+  </si>
+  <si>
+    <t>Never / Optional / Mandatory</t>
+  </si>
+  <si>
+    <t>Decides if quoting is needed for filenames used with include directives. Quotes are defined by the StringTerminator entry</t>
+  </si>
+  <si>
+    <t>HIGH(</t>
+  </si>
+  <si>
+    <t>LOW(</t>
+  </si>
+  <si>
+    <t>Who created the grammar file</t>
+  </si>
+  <si>
+    <t>End While command, e.g. ENDW</t>
+  </si>
+  <si>
+    <t>Macro definition command, e.g. MACRO or DEFMACRO</t>
+  </si>
+  <si>
+    <t>While command, e.g. WHILE</t>
+  </si>
+  <si>
+    <t>Default processor for this grammar, e.g. Z80</t>
+  </si>
+  <si>
+    <t>Default origin address in decimal, e.g. 0 or 512</t>
+  </si>
+  <si>
+    <t>Determines if the colon character : is used on labels followed by the EQU command</t>
+  </si>
+  <si>
+    <t>Determines if the colon character : is allowed in labels which start at the beginning of the line</t>
+  </si>
+  <si>
+    <t>LabelColonRuleIndented</t>
+  </si>
+  <si>
+    <t>Determines if the colon character : is allowed on labels which do not start at the beginning of the line</t>
+  </si>
+  <si>
+    <t>Decides if B/C/D/E/H/L/M/A should be predefined as 0..7 in the old Intel style</t>
+  </si>
+  <si>
+    <t>Determines which string terminators can be used to terminate a string used as an operand, e.g. MOV B,'Q'. The characters must exist in the available range of string terminators</t>
+  </si>
+  <si>
+    <t>The command used to invoke a macro, e.g. MACRO. If this is blank, then anything that is in the directive space which is not an opcode or an existing command will be treated as a macro</t>
+  </si>
+  <si>
+    <t>Operator for a close bracket, normally )</t>
+  </si>
+  <si>
+    <t>Operator for an open bracket, normally (</t>
+  </si>
+  <si>
+    <t>The title of this grammar, e.g. XA80 Grammar File</t>
+  </si>
+  <si>
+    <t>The size of a tab when expanded, typically 4 or 8 characters</t>
+  </si>
+  <si>
+    <t>EquateRedefine</t>
+  </si>
+  <si>
+    <t>Decides if EQU and redefine a symbol more than once, normally SET is used for this</t>
+  </si>
+  <si>
+    <t>Expression Token</t>
+  </si>
+  <si>
+    <t>LabelAtStart</t>
+  </si>
+  <si>
+    <t>True if the label must start in the first column of the line. False allows whitespace to be present first</t>
   </si>
   <si>
     <t>Set of characters which can be escaped. Typically the escape character itself and some other stuff, e.g. \ “ ‘ n t r. Some special cases where {e} is the escape character:
@@ -668,397 +1076,34 @@
 {e}r = 0D Carriage return
 {e}t = 09 Horizontal tab
 {e}v = 0B Vertical tab
-{e}{e} = Escape chart
+{e}{e} = Escape char
 {e}’ = Single quote
 {e}” = Double quote
 {e}? = Question mark</t>
   </si>
   <si>
-    <t>nnnn nnnnd nnnnD</t>
-  </si>
-  <si>
-    <t>Choice of: 0bnnnn 0Bnnnn %nnnn nnnnb nnnnB</t>
-  </si>
-  <si>
-    <t>Choice of: nnnn nnnnd nnnnD</t>
-  </si>
-  <si>
-    <t>String showing binary formats</t>
-  </si>
-  <si>
-    <t>String showing decimal formats</t>
-  </si>
-  <si>
-    <t>Choice of: 0xnnnn 0Xnnnn $nnnn #nnnn nnnnh nnnnH</t>
-  </si>
-  <si>
-    <t>String showing hex formats. If nnnnh or nnnnH is used the first character must be a digit to avoid the input being parsed as a label</t>
-  </si>
-  <si>
-    <t>Choice of: nnnnO nnnno nnnnQ nnnnq</t>
-  </si>
-  <si>
-    <t>String showing octal formats</t>
-  </si>
-  <si>
-    <t>nnnnO nnnno nnnnQ nnnnq</t>
-  </si>
-  <si>
-    <t>MacroLabelPrefixL</t>
-  </si>
-  <si>
-    <t>MacroLabelPrefixG</t>
-  </si>
-  <si>
-    <t>Prefix, if used, for global labels in a macro, e.g. @@ or %</t>
-  </si>
-  <si>
-    <t>Choice of: Always global / Global if prefixed / Local if prefixed / Always local</t>
-  </si>
-  <si>
-    <t>%G%</t>
-  </si>
-  <si>
-    <t>Sources</t>
-  </si>
-  <si>
-    <t>8080 - Intel 8080 Assembly Language Programming Manual, 1975, MCS-482-0275/15K</t>
-  </si>
-  <si>
-    <t>Mandatory</t>
-  </si>
-  <si>
-    <t>nnnnh nnnnH</t>
-  </si>
-  <si>
-    <t>nnnnb nnnnB</t>
-  </si>
-  <si>
-    <t>LiteralASCIIquote</t>
-  </si>
-  <si>
-    <t>'</t>
-  </si>
-  <si>
-    <t>OpBracketOpen</t>
-  </si>
-  <si>
-    <t>OpBracketClose</t>
-  </si>
-  <si>
-    <t>Issues</t>
-  </si>
-  <si>
-    <t>i8080 assembler defines B=0, C=1, D=2…. A=7</t>
-  </si>
-  <si>
-    <t>DB</t>
-  </si>
-  <si>
-    <t>DS</t>
-  </si>
-  <si>
-    <t>DW</t>
-  </si>
-  <si>
-    <t>EQU</t>
-  </si>
-  <si>
-    <t>ORG</t>
-  </si>
-  <si>
-    <t>DefaultOrg</t>
-  </si>
-  <si>
-    <t>CmdMacroDefine</t>
-  </si>
-  <si>
-    <t>DefaultProcessor</t>
-  </si>
-  <si>
-    <t>Z80</t>
-  </si>
-  <si>
-    <t>LabelPredefineReg</t>
-  </si>
-  <si>
-    <t>True</t>
-  </si>
-  <si>
-    <t>LabelColonRuleEqu</t>
-  </si>
-  <si>
-    <t>LabelColonRuleNormal</t>
-  </si>
-  <si>
-    <t>Never</t>
-  </si>
-  <si>
-    <t>TokeniserTabSize</t>
-  </si>
-  <si>
-    <t>MacroParamUse</t>
-  </si>
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Intel 8080 Grammar</t>
-  </si>
-  <si>
-    <t>XA80 Grammar</t>
-  </si>
-  <si>
-    <t>Author</t>
-  </si>
-  <si>
-    <t>Duncan Munro</t>
-  </si>
-  <si>
-    <t>Data Type</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>Text</t>
-  </si>
-  <si>
-    <t>Word</t>
-  </si>
-  <si>
-    <t>StringList</t>
-  </si>
-  <si>
-    <t>N/O/M</t>
-  </si>
-  <si>
-    <t>[?\"'abefnrtv]</t>
-  </si>
-  <si>
-    <t>CharSet</t>
-  </si>
-  <si>
-    <t>StringListOp</t>
-  </si>
-  <si>
-    <t>["']</t>
-  </si>
-  <si>
-    <t>Always Local</t>
-  </si>
-  <si>
-    <t>N/P/L</t>
-  </si>
-  <si>
-    <t>[/t ]</t>
-  </si>
-  <si>
-    <t>[,]</t>
-  </si>
-  <si>
-    <t>DB|DEFB</t>
-  </si>
-  <si>
-    <t>DS|DEFS</t>
-  </si>
-  <si>
-    <t>DM|DEFM</t>
-  </si>
-  <si>
-    <t>DC|DEFC</t>
-  </si>
-  <si>
-    <t>DZ|DEFZ</t>
-  </si>
-  <si>
-    <t>DW|DEFW</t>
-  </si>
-  <si>
-    <t>DD|DEFD</t>
-  </si>
-  <si>
-    <t>EXTERN|EXTERNAL</t>
-  </si>
-  <si>
-    <t>ORG|ORIGIN</t>
-  </si>
-  <si>
-    <t>RPT|REPEAT</t>
-  </si>
-  <si>
-    <t>CSEG|CODE</t>
-  </si>
-  <si>
-    <t>DSEG|DATA</t>
-  </si>
-  <si>
-    <t>USEG|UDATA</t>
-  </si>
-  <si>
-    <t>;|//</t>
-  </si>
-  <si>
-    <t>*|;|//</t>
-  </si>
-  <si>
-    <t>octal|Xhex|xhex</t>
-  </si>
-  <si>
-    <t>0bnnnn|0Bnnnn|nnnnb|nnnnB</t>
-  </si>
-  <si>
-    <t>nnnn|nnnnd|nnnnD</t>
-  </si>
-  <si>
-    <t>0xnnnn|0Xnnnn|$nnnn|#nnnn|nnnnh|nnnnH</t>
-  </si>
-  <si>
-    <t>nnnnO|nnnno|nnnnQ|nnnnq|0onnnn|0Onnnn</t>
-  </si>
-  <si>
-    <t>+|[5]</t>
-  </si>
-  <si>
-    <t>/|DIV|[3]</t>
-  </si>
-  <si>
-    <t>MOD|[3]</t>
-  </si>
-  <si>
-    <t>*|[3]</t>
-  </si>
-  <si>
-    <t>&lt;&lt;|[4]</t>
-  </si>
-  <si>
-    <t>&gt;&gt;|[4]</t>
-  </si>
-  <si>
-    <t>-|[5]</t>
-  </si>
-  <si>
-    <t>&amp;|[3]</t>
-  </si>
-  <si>
-    <t>{rule}|[5]</t>
-  </si>
-  <si>
-    <t>^|[3]</t>
-  </si>
-  <si>
-    <t>)|[1]</t>
-  </si>
-  <si>
-    <t>(|[1]</t>
-  </si>
-  <si>
-    <t>==|[6]</t>
-  </si>
-  <si>
-    <t>&gt;|[6]</t>
-  </si>
-  <si>
-    <t>&gt;=|[6]</t>
-  </si>
-  <si>
-    <t>&lt;|[6]</t>
-  </si>
-  <si>
-    <t>&lt;=|[6]</t>
-  </si>
-  <si>
-    <t>&lt;&gt;|!=|[6]</t>
-  </si>
-  <si>
-    <t>&amp;&amp;|AND|[7]</t>
-  </si>
-  <si>
-    <t>{rule}{rule}|OR|[8]</t>
-  </si>
-  <si>
-    <t>^^|XOR|[7]</t>
-  </si>
-  <si>
-    <t>-|[2]</t>
-  </si>
-  <si>
-    <t>!|NOT|[9]</t>
-  </si>
-  <si>
-    <t>+|[2]</t>
-  </si>
-  <si>
-    <t>+|[3]</t>
-  </si>
-  <si>
-    <t>/|[2]</t>
-  </si>
-  <si>
-    <t>MOD|[2]</t>
-  </si>
-  <si>
-    <t>*|[2]</t>
-  </si>
-  <si>
-    <t>SHL|[2]</t>
-  </si>
-  <si>
-    <t>SHR|[2]</t>
-  </si>
-  <si>
-    <t>-|[3]</t>
-  </si>
-  <si>
-    <t>AND|[5]</t>
-  </si>
-  <si>
-    <t>OR|[6]</t>
-  </si>
-  <si>
-    <t>XOR|[6]</t>
-  </si>
-  <si>
-    <t>NOT|[4]</t>
-  </si>
-  <si>
-    <t>CmdWhile</t>
-  </si>
-  <si>
-    <t>WHILE</t>
-  </si>
-  <si>
-    <t>CmdEndWhile</t>
-  </si>
-  <si>
-    <t>ENDW</t>
-  </si>
-  <si>
-    <t>SET|=</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Directive</t>
-  </si>
-  <si>
-    <t>Expression Operand</t>
-  </si>
-  <si>
-    <t>FilenameQuoting</t>
-  </si>
-  <si>
-    <t>Never / Optional / Mandatory</t>
-  </si>
-  <si>
-    <t>Decides if quoting is needed for filenames used with include directives. Quotes are defined by the StringTerminator entry</t>
-  </si>
-  <si>
-    <t>HIGH(</t>
-  </si>
-  <si>
-    <t>LOW(</t>
+    <t>OpUnaryOnesComp</t>
+  </si>
+  <si>
+    <t>Operator for ones complement, e.g. ~</t>
+  </si>
+  <si>
+    <t>!|NOT|[2]</t>
+  </si>
+  <si>
+    <t>~|[2]</t>
+  </si>
+  <si>
+    <t>0b{digits}|0B{digits}|{digits}b|{digits}B</t>
+  </si>
+  <si>
+    <t>{digits}|{digits}|{digits}D</t>
+  </si>
+  <si>
+    <t>0x{digits}|0X{digits}|${digits}|#{digits}|{digits}h|{digits}H</t>
+  </si>
+  <si>
+    <t>{digits}O|{digits}o|{digits}Q|{digits}q|0o{digits}|0O{digits}</t>
   </si>
 </sst>
 </file>
@@ -1164,10 +1209,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}" name="Table1" displayName="Table1" ref="A3:C90" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A3:C90" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C90">
-    <sortCondition ref="A3:A90"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}" name="Table1" displayName="Table1" ref="A3:C107" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A3:C107" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C105">
+    <sortCondition ref="A3:A105"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BDD6E3B8-3C55-4926-9439-302BF746CC1F}" name="Sub-option" dataDxfId="2"/>
@@ -1179,10 +1224,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:H103" totalsRowShown="0">
-  <autoFilter ref="A3:H103" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F103">
-    <sortCondition ref="A4:A103"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:H107" totalsRowShown="0">
+  <autoFilter ref="A3:H107" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F107">
+    <sortCondition ref="A4:A107"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{89255D4C-25D0-468B-8E6A-24B936C6C9CD}" name="Sub-option"/>
@@ -1495,10 +1540,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0613FF5-2B04-45AD-9F67-606697632ED3}">
-  <dimension ref="A1:C90"/>
+  <dimension ref="A1:C107"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
+      <selection activeCell="B69" sqref="B69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1510,7 +1555,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1526,959 +1571,1146 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>147</v>
+        <v>243</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>4</v>
+        <v>247</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>148</v>
+        <v>321</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>3</v>
+        <v>142</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>5</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C9" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>24</v>
+        <v>311</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>25</v>
+        <v>322</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>151</v>
+        <v>22</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>173</v>
+        <v>146</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>174</v>
+        <v>149</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>88</v>
+        <v>166</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>89</v>
+        <v>167</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>26</v>
+        <v>91</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
-        <v>155</v>
+        <v>24</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>157</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>159</v>
+        <v>230</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
-        <v>28</v>
+        <v>150</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>29</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>166</v>
+        <v>27</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>31</v>
+        <v>161</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
-        <v>152</v>
+        <v>28</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>153</v>
+        <v>29</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
-        <v>32</v>
+        <v>151</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>33</v>
+        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="B36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C36" s="3" t="s">
+      <c r="B42" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="3" t="s">
         <v>35</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A37" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C37" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A38" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="C38" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A39" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="C39" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A40" s="2" t="s">
-        <v>204</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>205</v>
-      </c>
-      <c r="C40" s="3" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="216" x14ac:dyDescent="0.3">
-      <c r="A41" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" s="3" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
-        <v>332</v>
+        <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>333</v>
+        <v>74</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>86</v>
+        <v>338</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
-        <v>84</v>
+        <v>38</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>55</v>
+        <v>39</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>85</v>
+        <v>40</v>
       </c>
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
-        <v>45</v>
+        <v>199</v>
       </c>
       <c r="B46" s="3" t="s">
-        <v>46</v>
+        <v>200</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="216" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="B47" s="3" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="B48" s="3" t="s">
-        <v>48</v>
+        <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>52</v>
+        <v>316</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>79</v>
+        <v>317</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>53</v>
+        <v>318</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>54</v>
+        <v>81</v>
       </c>
       <c r="B50" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>56</v>
+        <v>82</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>57</v>
+        <v>79</v>
       </c>
       <c r="B51" s="3" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>58</v>
+        <v>80</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>59</v>
+        <v>341</v>
       </c>
       <c r="B52" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>61</v>
+        <v>342</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
       <c r="B53" s="3" t="s">
-        <v>60</v>
+        <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="54" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>162</v>
+        <v>48</v>
       </c>
       <c r="B54" s="3" t="s">
-        <v>209</v>
+        <v>46</v>
       </c>
       <c r="C54" s="3" t="s">
-        <v>211</v>
+        <v>49</v>
       </c>
     </row>
     <row r="55" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
-        <v>161</v>
+        <v>45</v>
       </c>
       <c r="B55" s="3" t="s">
-        <v>210</v>
+        <v>46</v>
       </c>
       <c r="C55" s="3" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>164</v>
+        <v>236</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>213</v>
+        <v>317</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>214</v>
+        <v>328</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>329</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>215</v>
+        <v>317</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>219</v>
+        <v>235</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>220</v>
+        <v>327</v>
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="B59" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C59" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A60" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="3" t="s">
-        <v>221</v>
-      </c>
-      <c r="C60" s="3" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="B62" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C62" s="3" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="B63" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C63" s="3" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>108</v>
-      </c>
       <c r="B64" s="3" t="s">
-        <v>4</v>
+        <v>46</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>82</v>
+        <v>332</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B65" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>114</v>
+        <v>203</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>115</v>
+        <v>156</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>117</v>
+        <v>159</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>118</v>
+        <v>205</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>109</v>
+        <v>158</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>102</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>124</v>
+        <v>208</v>
       </c>
       <c r="B70" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
-        <v>131</v>
+        <v>61</v>
       </c>
       <c r="B71" s="3" t="s">
-        <v>4</v>
+        <v>211</v>
       </c>
       <c r="C71" s="3" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B72" s="3" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>135</v>
+        <v>239</v>
       </c>
       <c r="B73" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>141</v>
+        <v>333</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>136</v>
+        <v>102</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>142</v>
+        <v>76</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>143</v>
+        <v>107</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>138</v>
+        <v>103</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>144</v>
+        <v>77</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>139</v>
+        <v>108</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>145</v>
+        <v>109</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>140</v>
+        <v>110</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>146</v>
+        <v>111</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>120</v>
+        <v>104</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>127</v>
+        <v>97</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>104</v>
+        <v>120</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>105</v>
+        <v>221</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>106</v>
+        <v>334</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>110</v>
+        <v>220</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>98</v>
+        <v>65</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>44</v>
+        <v>74</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>99</v>
+        <v>130</v>
       </c>
       <c r="B87" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>71</v>
+        <v>131</v>
       </c>
       <c r="B88" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="89" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>73</v>
+        <v>132</v>
       </c>
       <c r="B89" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>74</v>
+        <v>138</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>75</v>
+        <v>133</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>44</v>
+        <v>4</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>76</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>134</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="B93" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B94" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B96" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>117</v>
+      </c>
+      <c r="B97" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B98" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B99" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B100" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A102" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A104" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B105" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B106" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -2491,10 +2723,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FCB35D-BE1B-4C90-A6F7-1F428FFFD6EB}">
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:H116"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A44" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
+    <sheetView topLeftCell="A52" workbookViewId="0">
+      <selection activeCell="E69" sqref="E69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2511,7 +2743,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2519,53 +2751,53 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>314</v>
       </c>
       <c r="C3" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D3" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="E3" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F3" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="H3" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>253</v>
+        <v>243</v>
       </c>
       <c r="C4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="G4" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B5" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C5" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="G5" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2573,507 +2805,507 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C6" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="E6" t="s">
-        <v>269</v>
+        <v>259</v>
       </c>
       <c r="G6" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="B7" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C7" t="s">
-        <v>235</v>
+        <v>225</v>
       </c>
       <c r="E7" t="s">
-        <v>270</v>
+        <v>260</v>
       </c>
       <c r="G7" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E8" t="s">
-        <v>271</v>
+        <v>261</v>
       </c>
       <c r="G8" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E9" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="G9" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E10" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="G10" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C11" t="s">
-        <v>236</v>
+        <v>226</v>
       </c>
       <c r="E11" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="G11" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E12" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="G12" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="B13" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E13" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="G13" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="E14" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="G14" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="B15" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="E15" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="G15" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="E16" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="G16" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E17" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="G17" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>326</v>
+        <v>311</v>
       </c>
       <c r="B18" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E18" t="s">
-        <v>327</v>
+        <v>312</v>
       </c>
       <c r="G18" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C19" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="E19" t="s">
-        <v>237</v>
+        <v>227</v>
       </c>
       <c r="G19" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B20" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="G20" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B21" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E21" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="G21" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B22" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E22" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="G22" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B23" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="E23" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="G23" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
       <c r="B24" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E24" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="G24" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>96</v>
+        <v>91</v>
       </c>
       <c r="B25" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E25" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="G25" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E26" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="G26" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>240</v>
+        <v>230</v>
       </c>
       <c r="B27" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C27" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="E27" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="G27" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="B28" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E28" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="G28" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B29" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C29" t="s">
-        <v>238</v>
+        <v>228</v>
       </c>
       <c r="E29" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="G29" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E30" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="G30" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B31" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E31" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="G31" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B32" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E32" t="s">
-        <v>280</v>
+        <v>270</v>
       </c>
       <c r="G32" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B33" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E33" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="G33" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="C34" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="E34" t="s">
-        <v>328</v>
+        <v>313</v>
       </c>
       <c r="G34" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="B35" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E35" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="G35" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="B36" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E36" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
       <c r="G36" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>309</v>
       </c>
       <c r="B37" t="s">
-        <v>330</v>
+        <v>315</v>
       </c>
       <c r="E37" t="s">
-        <v>325</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="G38" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="G39" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>239</v>
+        <v>229</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -3084,901 +3316,945 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" t="s">
-        <v>258</v>
+        <v>248</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>241</v>
+        <v>231</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>242</v>
+        <v>232</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G42" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="G43" t="s">
-        <v>260</v>
+        <v>250</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" t="s">
-        <v>196</v>
+        <v>338</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="E44" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G44" t="s">
-        <v>55</v>
+        <v>44</v>
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>284</v>
+        <v>191</v>
       </c>
       <c r="G45" t="s">
-        <v>259</v>
+        <v>51</v>
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>43</v>
+        <v>199</v>
       </c>
       <c r="E46" t="s">
-        <v>261</v>
+        <v>274</v>
       </c>
       <c r="G46" t="s">
-        <v>262</v>
+        <v>249</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>133</v>
-      </c>
-      <c r="C47" t="s">
-        <v>197</v>
+        <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>197</v>
+        <v>251</v>
       </c>
       <c r="G47" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>332</v>
+        <v>128</v>
       </c>
       <c r="C48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="E48" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="G48" t="s">
-        <v>260</v>
+        <v>249</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>86</v>
-      </c>
-      <c r="B49" t="s">
-        <v>331</v>
+        <v>316</v>
+      </c>
+      <c r="C49" t="s">
+        <v>190</v>
       </c>
       <c r="E49" t="s">
-        <v>335</v>
+        <v>190</v>
       </c>
       <c r="G49" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="B50" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E50" t="s">
-        <v>336</v>
+        <v>319</v>
       </c>
       <c r="G50" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>45</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>198</v>
+        <v>79</v>
+      </c>
+      <c r="B51" t="s">
+        <v>340</v>
+      </c>
+      <c r="E51" t="s">
+        <v>320</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>253</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" t="s">
-        <v>200</v>
+        <v>341</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>234</v>
+      </c>
+      <c r="E52" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G52" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
     </row>
     <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>47</v>
-      </c>
-      <c r="E53" t="s">
-        <v>199</v>
+        <v>43</v>
+      </c>
+      <c r="E53" s="4" t="s">
+        <v>193</v>
       </c>
       <c r="G53" t="s">
-        <v>262</v>
+        <v>44</v>
       </c>
     </row>
     <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>245</v>
-      </c>
-      <c r="C54" t="s">
-        <v>247</v>
+        <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>247</v>
+        <v>195</v>
       </c>
       <c r="G54" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>246</v>
-      </c>
-      <c r="C55" t="s">
-        <v>225</v>
+        <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G55" t="s">
-        <v>260</v>
+        <v>252</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>235</v>
+      </c>
+      <c r="C56" t="s">
+        <v>237</v>
       </c>
       <c r="E56" t="s">
-        <v>203</v>
+        <v>237</v>
       </c>
       <c r="G56" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>57</v>
+        <v>329</v>
+      </c>
+      <c r="C57" t="s">
+        <v>190</v>
+      </c>
+      <c r="E57" t="s">
+        <v>190</v>
       </c>
       <c r="G57" t="s">
-        <v>55</v>
+        <v>250</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>59</v>
-      </c>
-      <c r="C58" s="6">
-        <v>128</v>
-      </c>
-      <c r="E58" s="5">
-        <v>128</v>
+        <v>236</v>
+      </c>
+      <c r="C58" t="s">
+        <v>215</v>
+      </c>
+      <c r="E58" t="s">
+        <v>190</v>
       </c>
       <c r="G58" t="s">
-        <v>258</v>
+        <v>250</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>62</v>
-      </c>
-      <c r="C59" s="6">
-        <v>5</v>
-      </c>
-      <c r="E59" s="5">
-        <v>128</v>
+        <v>50</v>
+      </c>
+      <c r="E59" t="s">
+        <v>198</v>
       </c>
       <c r="G59" t="s">
-        <v>258</v>
+        <v>51</v>
       </c>
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>243</v>
-      </c>
-      <c r="C60" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E60" s="8" t="s">
-        <v>198</v>
+        <v>53</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>228</v>
-      </c>
-      <c r="B61" t="s">
-        <v>331</v>
-      </c>
-      <c r="C61" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="E61" s="8" t="s">
-        <v>264</v>
+        <v>55</v>
+      </c>
+      <c r="C61" s="6">
+        <v>128</v>
+      </c>
+      <c r="E61" s="5">
+        <v>128</v>
       </c>
       <c r="G61" t="s">
-        <v>262</v>
+        <v>248</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>162</v>
-      </c>
-      <c r="B62" t="s">
-        <v>331</v>
-      </c>
-      <c r="C62" t="s">
-        <v>227</v>
-      </c>
-      <c r="E62" t="s">
-        <v>285</v>
+        <v>58</v>
+      </c>
+      <c r="C62" s="6">
+        <v>5</v>
+      </c>
+      <c r="E62" s="5">
+        <v>128</v>
       </c>
       <c r="G62" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>161</v>
-      </c>
-      <c r="B63" t="s">
-        <v>331</v>
-      </c>
-      <c r="C63" t="s">
-        <v>208</v>
-      </c>
-      <c r="E63" t="s">
-        <v>286</v>
+        <v>233</v>
+      </c>
+      <c r="C63" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="E63" s="8" t="s">
+        <v>193</v>
       </c>
       <c r="G63" t="s">
-        <v>259</v>
+        <v>44</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>164</v>
-      </c>
-      <c r="B64" t="s">
-        <v>331</v>
-      </c>
-      <c r="C64" t="s">
-        <v>226</v>
-      </c>
-      <c r="E64" t="s">
-        <v>287</v>
+        <v>218</v>
+      </c>
+      <c r="C64" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="E64" s="8" t="s">
+        <v>254</v>
       </c>
       <c r="G64" t="s">
-        <v>259</v>
+        <v>252</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
         <v>217</v>
       </c>
       <c r="E65" t="s">
-        <v>288</v>
+        <v>348</v>
       </c>
       <c r="G65" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>219</v>
+        <v>156</v>
+      </c>
+      <c r="C66" t="s">
+        <v>202</v>
       </c>
       <c r="E66" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="G66" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>218</v>
+        <v>159</v>
+      </c>
+      <c r="C67" t="s">
+        <v>216</v>
+      </c>
+      <c r="E67" t="s">
+        <v>350</v>
       </c>
       <c r="G67" t="s">
-        <v>55</v>
+        <v>249</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>65</v>
+        <v>158</v>
+      </c>
+      <c r="C68" t="s">
+        <v>207</v>
       </c>
       <c r="E68" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="G68" t="s">
-        <v>266</v>
+        <v>249</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>67</v>
+        <v>209</v>
+      </c>
+      <c r="E69" t="s">
+        <v>212</v>
       </c>
       <c r="G69" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="G70" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" t="s">
-        <v>331</v>
-      </c>
-      <c r="C71" s="4" t="s">
-        <v>313</v>
-      </c>
-      <c r="E71" s="4" t="s">
-        <v>289</v>
+        <v>61</v>
+      </c>
+      <c r="E71" t="s">
+        <v>255</v>
       </c>
       <c r="G71" t="s">
-        <v>263</v>
+        <v>256</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>111</v>
-      </c>
-      <c r="B72" t="s">
-        <v>331</v>
-      </c>
-      <c r="C72" s="4" t="s">
-        <v>314</v>
-      </c>
-      <c r="E72" s="4" t="s">
-        <v>290</v>
+        <v>63</v>
       </c>
       <c r="G72" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>108</v>
-      </c>
-      <c r="B73" t="s">
-        <v>331</v>
-      </c>
-      <c r="C73" t="s">
-        <v>315</v>
-      </c>
-      <c r="E73" s="4" t="s">
-        <v>291</v>
+        <v>239</v>
       </c>
       <c r="G73" t="s">
-        <v>263</v>
+        <v>51</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="B74" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C74" s="4" t="s">
-        <v>316</v>
+        <v>298</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>292</v>
+        <v>275</v>
       </c>
       <c r="G74" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="B75" t="s">
-        <v>331</v>
-      </c>
-      <c r="C75" t="s">
-        <v>317</v>
+        <v>340</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>299</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>293</v>
+        <v>276</v>
       </c>
       <c r="G75" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B76" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C76" t="s">
-        <v>318</v>
+        <v>300</v>
       </c>
       <c r="E76" s="4" t="s">
-        <v>294</v>
+        <v>277</v>
       </c>
       <c r="G76" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B77" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C77" s="4" t="s">
-        <v>319</v>
+        <v>301</v>
       </c>
       <c r="E77" s="4" t="s">
-        <v>295</v>
+        <v>278</v>
       </c>
       <c r="G77" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>129</v>
+        <v>110</v>
       </c>
       <c r="B78" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="C78" t="s">
+        <v>302</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>296</v>
+        <v>279</v>
       </c>
       <c r="G78" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="B79" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="C79" t="s">
+        <v>303</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>297</v>
+        <v>280</v>
       </c>
       <c r="G79" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>131</v>
+        <v>104</v>
       </c>
       <c r="B80" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="C80" s="4" t="s">
+        <v>304</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>298</v>
+        <v>281</v>
       </c>
       <c r="G80" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>231</v>
+        <v>124</v>
       </c>
       <c r="B81" t="s">
-        <v>331</v>
-      </c>
-      <c r="C81" t="s">
-        <v>299</v>
+        <v>340</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>299</v>
+        <v>282</v>
       </c>
       <c r="G81" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>230</v>
+        <v>119</v>
       </c>
       <c r="B82" t="s">
-        <v>331</v>
-      </c>
-      <c r="C82" t="s">
-        <v>300</v>
+        <v>340</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>300</v>
+        <v>283</v>
       </c>
       <c r="G82" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>69</v>
+        <v>126</v>
       </c>
       <c r="B83" t="s">
-        <v>331</v>
-      </c>
-      <c r="E83" t="s">
-        <v>195</v>
+        <v>340</v>
+      </c>
+      <c r="E83" s="4" t="s">
+        <v>284</v>
       </c>
       <c r="G83" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="B84" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="C84" t="s">
+        <v>285</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>301</v>
+        <v>285</v>
       </c>
       <c r="G84" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>136</v>
+        <v>220</v>
       </c>
       <c r="B85" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="C85" t="s">
+        <v>286</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>302</v>
+        <v>286</v>
       </c>
       <c r="G85" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>137</v>
+        <v>65</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
-      </c>
-      <c r="E86" s="4" t="s">
-        <v>303</v>
+        <v>340</v>
+      </c>
+      <c r="E86" t="s">
+        <v>190</v>
       </c>
       <c r="G86" t="s">
-        <v>263</v>
+        <v>250</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>138</v>
+        <v>130</v>
       </c>
       <c r="B87" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>304</v>
+        <v>287</v>
       </c>
       <c r="G87" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>139</v>
+        <v>131</v>
       </c>
       <c r="B88" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>305</v>
+        <v>288</v>
       </c>
       <c r="G88" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>140</v>
+        <v>132</v>
       </c>
       <c r="B89" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>306</v>
+        <v>289</v>
       </c>
       <c r="G89" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>119</v>
+        <v>133</v>
       </c>
       <c r="B90" t="s">
-        <v>331</v>
-      </c>
-      <c r="C90" t="s">
-        <v>320</v>
+        <v>340</v>
       </c>
       <c r="E90" s="4" t="s">
-        <v>307</v>
+        <v>290</v>
       </c>
       <c r="G90" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>120</v>
+        <v>134</v>
       </c>
       <c r="B91" t="s">
-        <v>331</v>
-      </c>
-      <c r="C91" t="s">
-        <v>321</v>
-      </c>
-      <c r="E91" t="s">
-        <v>308</v>
+        <v>340</v>
+      </c>
+      <c r="E91" s="4" t="s">
+        <v>291</v>
       </c>
       <c r="G91" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>121</v>
+        <v>135</v>
       </c>
       <c r="B92" t="s">
-        <v>331</v>
-      </c>
-      <c r="C92" t="s">
-        <v>322</v>
-      </c>
-      <c r="E92" t="s">
-        <v>309</v>
+        <v>340</v>
+      </c>
+      <c r="E92" s="4" t="s">
+        <v>292</v>
       </c>
       <c r="G92" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>103</v>
+        <v>114</v>
       </c>
       <c r="B93" t="s">
-        <v>331</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>319</v>
+        <v>340</v>
+      </c>
+      <c r="C93" t="s">
+        <v>305</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>310</v>
+        <v>293</v>
       </c>
       <c r="G93" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="B94" t="s">
-        <v>331</v>
+        <v>340</v>
       </c>
       <c r="C94" t="s">
-        <v>323</v>
-      </c>
-      <c r="E94" s="4" t="s">
-        <v>311</v>
+        <v>306</v>
+      </c>
+      <c r="E94" t="s">
+        <v>294</v>
       </c>
       <c r="G94" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>105</v>
+        <v>116</v>
       </c>
       <c r="B95" t="s">
-        <v>331</v>
-      </c>
-      <c r="E95" s="4" t="s">
-        <v>312</v>
+        <v>340</v>
+      </c>
+      <c r="C95" t="s">
+        <v>307</v>
+      </c>
+      <c r="E95" t="s">
+        <v>295</v>
       </c>
       <c r="G95" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B96" t="s">
-        <v>331</v>
+        <v>340</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>304</v>
+      </c>
+      <c r="E96" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="G96" t="s">
-        <v>263</v>
+        <v>253</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>98</v>
+        <v>117</v>
+      </c>
+      <c r="B97" t="s">
+        <v>340</v>
+      </c>
+      <c r="C97" t="s">
+        <v>308</v>
+      </c>
+      <c r="E97" s="4" t="s">
+        <v>346</v>
       </c>
       <c r="G97" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>99</v>
-      </c>
-      <c r="C98" t="s">
-        <v>267</v>
-      </c>
-      <c r="E98" t="s">
-        <v>267</v>
+        <v>344</v>
+      </c>
+      <c r="B98" t="s">
+        <v>340</v>
+      </c>
+      <c r="E98" s="4" t="s">
+        <v>347</v>
       </c>
       <c r="G98" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>71</v>
-      </c>
-      <c r="C99" t="s">
-        <v>267</v>
-      </c>
-      <c r="E99" t="s">
-        <v>267</v>
+        <v>100</v>
+      </c>
+      <c r="B99" t="s">
+        <v>340</v>
+      </c>
+      <c r="E99" s="4" t="s">
+        <v>297</v>
       </c>
       <c r="G99" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>73</v>
-      </c>
-      <c r="C100" t="s">
-        <v>268</v>
-      </c>
-      <c r="E100" t="s">
-        <v>268</v>
+        <v>105</v>
+      </c>
+      <c r="B100" t="s">
+        <v>340</v>
       </c>
       <c r="G100" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>75</v>
-      </c>
-      <c r="E101" s="4" t="s">
-        <v>264</v>
+        <v>93</v>
       </c>
       <c r="G101" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>250</v>
+        <v>94</v>
       </c>
       <c r="C102" t="s">
-        <v>251</v>
-      </c>
-      <c r="E102" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E102" t="s">
+        <v>257</v>
+      </c>
+      <c r="G102" t="s">
         <v>252</v>
-      </c>
-      <c r="G102" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
+        <v>67</v>
+      </c>
+      <c r="C103" t="s">
+        <v>257</v>
+      </c>
+      <c r="E103" t="s">
+        <v>257</v>
+      </c>
+      <c r="G103" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A104" t="s">
+        <v>69</v>
+      </c>
+      <c r="C104" t="s">
+        <v>258</v>
+      </c>
+      <c r="E104" t="s">
+        <v>258</v>
+      </c>
+      <c r="G104" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A105" t="s">
+        <v>71</v>
+      </c>
+      <c r="E105" s="4" t="s">
+        <v>254</v>
+      </c>
+      <c r="G105" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A106" t="s">
+        <v>240</v>
+      </c>
+      <c r="C106" t="s">
+        <v>241</v>
+      </c>
+      <c r="E106" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="G106" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A107" t="s">
+        <v>238</v>
+      </c>
+      <c r="C107" s="6">
+        <v>4</v>
+      </c>
+      <c r="D107" s="6"/>
+      <c r="E107" s="6">
+        <v>4</v>
+      </c>
+      <c r="F107" s="6"/>
+      <c r="G107" t="s">
         <v>248</v>
       </c>
-      <c r="C103" s="6">
-        <v>4</v>
-      </c>
-      <c r="D103" s="6"/>
-      <c r="E103" s="6">
-        <v>4</v>
-      </c>
-      <c r="F103" s="6"/>
-      <c r="G103" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D104" s="4"/>
-    </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A107" s="9" t="s">
-        <v>223</v>
-      </c>
     </row>
     <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A108" t="s">
-        <v>224</v>
-      </c>
+      <c r="D108" s="4"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="9" t="s">
-        <v>232</v>
+        <v>213</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>233</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A115" s="9" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A116" t="s">
+        <v>223</v>
       </c>
     </row>
   </sheetData>

--- a/docs/grammar.xlsx
+++ b/docs/grammar.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan Munro\Dropbox\dev\lazarus\computing\z80\xa80\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76407D06-2660-45FD-8D0A-6C21DE8035DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA88BE-6D36-48D8-ABDE-A99CEB5FDFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1920" yWindow="408" windowWidth="20004" windowHeight="11832" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="737" uniqueCount="352">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="362">
   <si>
     <t>Sub-option</t>
   </si>
@@ -227,12 +227,6 @@
     <t>Macro label rule, decides whether labels defined in Macros are local or global</t>
   </si>
   <si>
-    <t>MacroParamPrefix</t>
-  </si>
-  <si>
-    <t>Prefix to use on Macro parameters, e.g. @ or #</t>
-  </si>
-  <si>
     <t>OpcodeSquareRule</t>
   </si>
   <si>
@@ -753,9 +747,6 @@
   </si>
   <si>
     <t>TokeniserTabSize</t>
-  </si>
-  <si>
-    <t>MacroParamUse</t>
   </si>
   <si>
     <t>Title</t>
@@ -1104,6 +1095,45 @@
   </si>
   <si>
     <t>{digits}O|{digits}o|{digits}Q|{digits}q|0o{digits}|0O{digits}</t>
+  </si>
+  <si>
+    <t>MacroAllowKeywords</t>
+  </si>
+  <si>
+    <t>True if macro can be named same as keywords like DEFB, MOV etc.</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>To Add</t>
+  </si>
+  <si>
+    <t>MacroParamNamePrefix</t>
+  </si>
+  <si>
+    <t>MacroParamUsePrefix</t>
+  </si>
+  <si>
+    <t>MacroParamNamed</t>
+  </si>
+  <si>
+    <t>Prefix to use on Macro parameters names, e.g. @ or #</t>
+  </si>
+  <si>
+    <t>True if a macro uses named parameters, e.g. MACRO #START,#LEN so that the macro may refer to the parameters by these terms. If false, the macro will use numbered parameters such as @0, @1 etc. These can be indexed from zero or one depending on MacroParamIndexZero</t>
+  </si>
+  <si>
+    <t>MacroParamIndexZero</t>
+  </si>
+  <si>
+    <t>True if macro parameter numbers are index from zero, e.g. @0, @1, @2… or false if indexed from 1, e.g. @1, @2, @3…</t>
+  </si>
+  <si>
+    <t>LabelLocalInsert</t>
+  </si>
+  <si>
+    <t>Text to expand into a local qualifier, for example if this value is #$YM then the label START#$YM will expand to START0001</t>
   </si>
 </sst>
 </file>
@@ -1209,10 +1239,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}" name="Table1" displayName="Table1" ref="A3:C107" totalsRowShown="0" dataDxfId="3">
-  <autoFilter ref="A3:C107" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C105">
-    <sortCondition ref="A3:A105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}" name="Table1" displayName="Table1" ref="A3:C111" totalsRowShown="0" dataDxfId="3">
+  <autoFilter ref="A3:C111" xr:uid="{6A3213A6-1E69-4C69-B712-589244F4F73F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:C109">
+    <sortCondition ref="A3:A109"/>
   </sortState>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{BDD6E3B8-3C55-4926-9439-302BF746CC1F}" name="Sub-option" dataDxfId="2"/>
@@ -1224,10 +1254,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:H107" totalsRowShown="0">
-  <autoFilter ref="A3:H107" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F107">
-    <sortCondition ref="A4:A107"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}" name="Table3" displayName="Table3" ref="A3:H111" totalsRowShown="0">
+  <autoFilter ref="A3:H111" xr:uid="{230B6CDB-E509-4506-ABF1-0503F1C4B356}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A4:F111">
+    <sortCondition ref="A4:A111"/>
   </sortState>
   <tableColumns count="8">
     <tableColumn id="1" xr3:uid="{89255D4C-25D0-468B-8E6A-24B936C6C9CD}" name="Sub-option"/>
@@ -1540,10 +1570,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0613FF5-2B04-45AD-9F67-606697632ED3}">
-  <dimension ref="A1:C107"/>
+  <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" workbookViewId="0">
-      <selection activeCell="B69" sqref="B69"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1555,7 +1585,7 @@
   <sheetData>
     <row r="1" spans="1:3" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
@@ -1571,24 +1601,24 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
@@ -1604,13 +1634,13 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1670,13 +1700,13 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
@@ -1692,13 +1722,13 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
@@ -1725,13 +1755,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1747,68 +1777,68 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -1824,35 +1854,35 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="3" t="s">
         <v>150</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -1868,35 +1898,35 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
@@ -1912,35 +1942,35 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C35" s="3" t="s">
         <v>151</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C35" s="3" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -1967,24 +1997,24 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1992,7 +2022,7 @@
         <v>34</v>
       </c>
       <c r="B42" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>35</v>
@@ -2003,7 +2033,7 @@
         <v>36</v>
       </c>
       <c r="B43" s="3" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>37</v>
@@ -2011,13 +2041,13 @@
     </row>
     <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2033,13 +2063,13 @@
     </row>
     <row r="46" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="C46" s="3" t="s">
         <v>199</v>
-      </c>
-      <c r="B46" s="3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="216" x14ac:dyDescent="0.3">
@@ -2050,62 +2080,62 @@
         <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B48" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B49" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C49" s="3" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B51" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2116,7 +2146,7 @@
         <v>44</v>
       </c>
       <c r="C53" s="3" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
@@ -2143,574 +2173,618 @@
     </row>
     <row r="56" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="B57" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C57" s="3" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>317</v>
+        <v>314</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>50</v>
+        <v>360</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>52</v>
+        <v>361</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B60" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C60" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C61" s="3" t="s">
         <v>54</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A61" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B61" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C61" s="3" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B62" s="3" t="s">
         <v>56</v>
       </c>
       <c r="C62" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
-        <v>233</v>
+        <v>58</v>
       </c>
       <c r="B63" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="B64" s="3" t="s">
         <v>44</v>
       </c>
-      <c r="C63" s="3" t="s">
-        <v>331</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A64" s="2" t="s">
-        <v>218</v>
-      </c>
-      <c r="B64" s="3" t="s">
+      <c r="C64" s="3" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B65" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C64" s="3" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A65" s="2" t="s">
-        <v>157</v>
-      </c>
-      <c r="B65" s="3" t="s">
-        <v>4</v>
-      </c>
       <c r="C65" s="3" t="s">
-        <v>203</v>
+        <v>329</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B66" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C66" s="3" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="67" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B67" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C67" s="3" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B68" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C68" s="3" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
-        <v>209</v>
+        <v>156</v>
       </c>
       <c r="B69" s="3" t="s">
-        <v>51</v>
+        <v>4</v>
       </c>
       <c r="C69" s="3" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B70" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="B71" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C71" s="3" t="s">
         <v>208</v>
-      </c>
-      <c r="B70" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="C70" s="3" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A71" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="B71" s="3" t="s">
-        <v>211</v>
-      </c>
-      <c r="C71" s="3" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="B72" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C72" s="3" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
-        <v>239</v>
+        <v>61</v>
       </c>
       <c r="B73" s="3" t="s">
-        <v>4</v>
+        <v>209</v>
       </c>
       <c r="C73" s="3" t="s">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>102</v>
+        <v>358</v>
       </c>
       <c r="B74" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>106</v>
+        <v>355</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>4</v>
+        <v>44</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>107</v>
+        <v>357</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>353</v>
       </c>
       <c r="B76" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>108</v>
+        <v>354</v>
       </c>
       <c r="B77" s="3" t="s">
-        <v>4</v>
+        <v>51</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>109</v>
+        <v>330</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B78" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C78" s="3" t="s">
-        <v>111</v>
+        <v>74</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B79" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C79" s="3" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B80" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C80" s="3" t="s">
-        <v>97</v>
+        <v>75</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B81" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C81" s="3" t="s">
-        <v>125</v>
+        <v>107</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B82" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C82" s="3" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B83" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C83" s="3" t="s">
-        <v>127</v>
+        <v>111</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="B84" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C84" s="3" t="s">
-        <v>334</v>
+        <v>95</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="B85" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C85" s="3" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B86" s="3" t="s">
-        <v>74</v>
+        <v>4</v>
       </c>
       <c r="C86" s="3" t="s">
-        <v>66</v>
+        <v>118</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B87" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C87" s="3" t="s">
-        <v>136</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="B88" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>137</v>
+        <v>331</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="B89" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B90" s="3" t="s">
-        <v>4</v>
+        <v>72</v>
       </c>
       <c r="C90" s="3" t="s">
-        <v>139</v>
+        <v>64</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B91" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C91" s="3" t="s">
         <v>134</v>
-      </c>
-      <c r="B91" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C91" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="B92" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C92" s="3" t="s">
         <v>135</v>
-      </c>
-      <c r="B92" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C92" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B93" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C93" s="3" t="s">
-        <v>123</v>
+        <v>136</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B94" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C94" s="3" t="s">
-        <v>122</v>
+        <v>137</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B95" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C95" s="3" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B96" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C96" s="3" t="s">
-        <v>99</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B97" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C97" s="3" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="B98" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C98" s="3" t="s">
-        <v>345</v>
+        <v>120</v>
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B99" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C99" s="3" t="s">
-        <v>101</v>
+        <v>119</v>
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B100" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C100" s="3" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
-        <v>93</v>
+        <v>115</v>
       </c>
       <c r="B101" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C101" s="3" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
-        <v>94</v>
+        <v>341</v>
       </c>
       <c r="B102" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C102" s="3" t="s">
-        <v>95</v>
+        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
-        <v>67</v>
+        <v>98</v>
       </c>
       <c r="B103" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C103" s="3" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
-        <v>69</v>
+        <v>103</v>
       </c>
       <c r="B104" s="3" t="s">
-        <v>42</v>
+        <v>4</v>
       </c>
       <c r="C104" s="3" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
-        <v>71</v>
+        <v>91</v>
       </c>
       <c r="B105" s="3" t="s">
         <v>42</v>
       </c>
       <c r="C105" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>247</v>
+        <v>42</v>
       </c>
       <c r="C106" s="3" t="s">
-        <v>336</v>
+        <v>93</v>
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
-        <v>238</v>
+        <v>65</v>
       </c>
       <c r="B107" s="3" t="s">
-        <v>248</v>
+        <v>42</v>
       </c>
       <c r="C107" s="3" t="s">
-        <v>337</v>
+        <v>66</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A108" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B109" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="B110" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B111" s="3" t="s">
+        <v>245</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -2723,10 +2797,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FCB35D-BE1B-4C90-A6F7-1F428FFFD6EB}">
-  <dimension ref="A1:H116"/>
+  <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="E69" sqref="E69"/>
+    <sheetView topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2743,7 +2817,7 @@
   <sheetData>
     <row r="1" spans="1:8" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -2751,53 +2825,53 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="C3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D3" t="s">
         <v>171</v>
       </c>
-      <c r="D3" t="s">
-        <v>173</v>
-      </c>
       <c r="E3" t="s">
+        <v>170</v>
+      </c>
+      <c r="F3" t="s">
         <v>172</v>
       </c>
-      <c r="F3" t="s">
-        <v>174</v>
-      </c>
       <c r="G3" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
       <c r="H3" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="C4" t="s">
+        <v>241</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="G4" t="s">
         <v>244</v>
-      </c>
-      <c r="E4" s="4" t="s">
-        <v>244</v>
-      </c>
-      <c r="G4" t="s">
-        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G5" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -2805,33 +2879,33 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C6" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="G6" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C7" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="G7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -2839,13 +2913,13 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E8" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="G8" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -2853,13 +2927,13 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E9" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="G9" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -2867,13 +2941,13 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E10" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="G10" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -2881,16 +2955,16 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C11" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -2898,27 +2972,27 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E12" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="G12" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E13" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="G13" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -2926,33 +3000,33 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="E14" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="G14" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="E15" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G15" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -2960,16 +3034,16 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="E16" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="G16" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
@@ -2977,27 +3051,27 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E17" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="G17" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="B18" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="G18" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
@@ -3005,103 +3079,103 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="E19" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G19" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="G20" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E21" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="G21" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E22" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G22" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E23" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="G23" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E24" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G24" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E25" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="G25" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
@@ -3109,61 +3183,61 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E26" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="G26" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="E27" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="G27" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E28" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G28" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="G29" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
@@ -3171,55 +3245,55 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="G30" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E31" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="G31" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="G32" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E33" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="G33" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
@@ -3227,58 +3301,58 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="C34" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="G34" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E35" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E36" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G36" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="B37" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="E37" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="G37" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
@@ -3286,10 +3360,10 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="G38" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
@@ -3297,15 +3371,15 @@
         <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="G39" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="C40" s="6">
         <v>0</v>
@@ -3316,23 +3390,23 @@
       </c>
       <c r="F40" s="6"/>
       <c r="G40" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D41" s="6"/>
       <c r="E41" s="6" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F41" s="6"/>
       <c r="G41" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
@@ -3340,10 +3414,10 @@
         <v>34</v>
       </c>
       <c r="E42" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G42" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
@@ -3351,21 +3425,21 @@
         <v>36</v>
       </c>
       <c r="E43" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G43" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="C44" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="E44" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G44" t="s">
         <v>44</v>
@@ -3376,7 +3450,7 @@
         <v>38</v>
       </c>
       <c r="E45" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G45" t="s">
         <v>51</v>
@@ -3384,13 +3458,13 @@
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="E46" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="G46" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
@@ -3398,77 +3472,77 @@
         <v>41</v>
       </c>
       <c r="E47" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="G47" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="C48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="E48" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G48" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="C49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E49" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G49" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E50" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="G50" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E51" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="G51" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="C52" s="4" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E52" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G52" t="s">
         <v>44</v>
@@ -3479,7 +3553,7 @@
         <v>43</v>
       </c>
       <c r="E53" s="4" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G53" t="s">
         <v>44</v>
@@ -3490,10 +3564,10 @@
         <v>48</v>
       </c>
       <c r="E54" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G54" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="55" spans="1:7" x14ac:dyDescent="0.3">
@@ -3501,60 +3575,57 @@
         <v>45</v>
       </c>
       <c r="E55" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G55" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
+        <v>233</v>
+      </c>
+      <c r="C56" t="s">
         <v>235</v>
       </c>
-      <c r="C56" t="s">
-        <v>237</v>
-      </c>
       <c r="E56" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="G56" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="C57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E57" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G57" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="C58" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="E58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G58" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E59" t="s">
-        <v>198</v>
+        <v>360</v>
       </c>
       <c r="G59" t="s">
         <v>51</v>
@@ -3562,7 +3633,10 @@
     </row>
     <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>53</v>
+        <v>50</v>
+      </c>
+      <c r="E60" t="s">
+        <v>196</v>
       </c>
       <c r="G60" t="s">
         <v>51</v>
@@ -3570,69 +3644,63 @@
     </row>
     <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>55</v>
-      </c>
-      <c r="C61" s="6">
-        <v>128</v>
-      </c>
-      <c r="E61" s="5">
-        <v>128</v>
+        <v>53</v>
       </c>
       <c r="G61" t="s">
-        <v>248</v>
+        <v>51</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C62" s="6">
-        <v>5</v>
+        <v>128</v>
       </c>
       <c r="E62" s="5">
         <v>128</v>
       </c>
       <c r="G62" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
     </row>
     <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>233</v>
-      </c>
-      <c r="C63" s="7" t="s">
-        <v>234</v>
-      </c>
-      <c r="E63" s="8" t="s">
-        <v>193</v>
+        <v>58</v>
+      </c>
+      <c r="C63" s="6">
+        <v>5</v>
+      </c>
+      <c r="E63" s="5">
+        <v>128</v>
       </c>
       <c r="G63" t="s">
-        <v>44</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>218</v>
+        <v>231</v>
       </c>
       <c r="C64" s="7" t="s">
-        <v>219</v>
+        <v>232</v>
       </c>
       <c r="E64" s="8" t="s">
-        <v>254</v>
+        <v>191</v>
       </c>
       <c r="G64" t="s">
-        <v>252</v>
+        <v>44</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>157</v>
-      </c>
-      <c r="C65" t="s">
+        <v>216</v>
+      </c>
+      <c r="C65" s="7" t="s">
         <v>217</v>
       </c>
-      <c r="E65" t="s">
-        <v>348</v>
+      <c r="E65" s="8" t="s">
+        <v>251</v>
       </c>
       <c r="G65" t="s">
         <v>249</v>
@@ -3640,79 +3708,91 @@
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C66" t="s">
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E66" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="G66" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="C67" t="s">
-        <v>216</v>
+        <v>200</v>
       </c>
       <c r="E67" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="G67" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C68" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="G68" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>209</v>
+        <v>156</v>
+      </c>
+      <c r="C69" t="s">
+        <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>212</v>
+        <v>348</v>
       </c>
       <c r="G69" t="s">
-        <v>51</v>
+        <v>246</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>208</v>
+        <v>349</v>
+      </c>
+      <c r="C70" t="s">
+        <v>351</v>
+      </c>
+      <c r="E70" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="F70" s="4" t="s">
+        <v>232</v>
       </c>
       <c r="G70" t="s">
-        <v>51</v>
+        <v>44</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>61</v>
+        <v>207</v>
       </c>
       <c r="E71" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="G71" t="s">
-        <v>256</v>
+        <v>51</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>63</v>
+        <v>206</v>
       </c>
       <c r="G72" t="s">
         <v>51</v>
@@ -3720,216 +3800,198 @@
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>239</v>
+        <v>61</v>
+      </c>
+      <c r="E73" t="s">
+        <v>252</v>
       </c>
       <c r="G73" t="s">
-        <v>51</v>
+        <v>253</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>102</v>
-      </c>
-      <c r="B74" t="s">
-        <v>340</v>
-      </c>
-      <c r="C74" s="4" t="s">
-        <v>298</v>
+        <v>358</v>
       </c>
       <c r="E74" s="4" t="s">
-        <v>275</v>
+        <v>191</v>
       </c>
       <c r="G74" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>106</v>
-      </c>
-      <c r="B75" t="s">
-        <v>340</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>299</v>
+        <v>355</v>
+      </c>
+      <c r="C75" t="s">
+        <v>351</v>
       </c>
       <c r="E75" s="4" t="s">
-        <v>276</v>
+        <v>232</v>
       </c>
       <c r="G75" t="s">
-        <v>253</v>
+        <v>44</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>103</v>
-      </c>
-      <c r="B76" t="s">
-        <v>340</v>
-      </c>
-      <c r="C76" t="s">
-        <v>300</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>277</v>
+        <v>353</v>
       </c>
       <c r="G76" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>108</v>
-      </c>
-      <c r="B77" t="s">
-        <v>340</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>301</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>278</v>
+        <v>354</v>
       </c>
       <c r="G77" t="s">
-        <v>253</v>
+        <v>51</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>340</v>
-      </c>
-      <c r="C78" t="s">
-        <v>302</v>
+        <v>337</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>295</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
       <c r="G78" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>340</v>
-      </c>
-      <c r="C79" t="s">
-        <v>303</v>
+        <v>337</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>296</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
       <c r="G79" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>340</v>
-      </c>
-      <c r="C80" s="4" t="s">
-        <v>304</v>
+        <v>337</v>
+      </c>
+      <c r="C80" t="s">
+        <v>297</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
       <c r="G80" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>124</v>
+        <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C81" s="4" t="s">
+        <v>298</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>282</v>
+        <v>275</v>
       </c>
       <c r="G81" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>119</v>
+        <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C82" t="s">
+        <v>299</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>283</v>
+        <v>276</v>
       </c>
       <c r="G82" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C83" t="s">
+        <v>300</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>284</v>
+        <v>277</v>
       </c>
       <c r="G83" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>221</v>
+        <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>340</v>
-      </c>
-      <c r="C84" t="s">
-        <v>285</v>
+        <v>337</v>
+      </c>
+      <c r="C84" s="4" t="s">
+        <v>301</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>285</v>
+        <v>278</v>
       </c>
       <c r="G84" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>220</v>
+        <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>340</v>
-      </c>
-      <c r="C85" t="s">
-        <v>286</v>
+        <v>337</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
       <c r="G85" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>65</v>
+        <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>340</v>
-      </c>
-      <c r="E86" t="s">
-        <v>190</v>
+        <v>337</v>
+      </c>
+      <c r="E86" s="4" t="s">
+        <v>280</v>
       </c>
       <c r="G86" t="s">
         <v>250</v>
@@ -3937,324 +3999,402 @@
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="G87" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>131</v>
+        <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C88" t="s">
+        <v>282</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G88" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>132</v>
+        <v>218</v>
       </c>
       <c r="B89" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C89" t="s">
+        <v>283</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="G89" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>133</v>
+        <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>340</v>
-      </c>
-      <c r="E90" s="4" t="s">
-        <v>290</v>
+        <v>337</v>
+      </c>
+      <c r="E90" t="s">
+        <v>188</v>
       </c>
       <c r="G90" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>134</v>
+        <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
       <c r="G91" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="G92" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>114</v>
+        <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>340</v>
-      </c>
-      <c r="C93" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
       <c r="G93" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>115</v>
+        <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>340</v>
-      </c>
-      <c r="C94" t="s">
-        <v>306</v>
-      </c>
-      <c r="E94" t="s">
-        <v>294</v>
+        <v>337</v>
+      </c>
+      <c r="E94" s="4" t="s">
+        <v>287</v>
       </c>
       <c r="G94" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>116</v>
+        <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>340</v>
-      </c>
-      <c r="C95" t="s">
-        <v>307</v>
-      </c>
-      <c r="E95" t="s">
-        <v>295</v>
+        <v>337</v>
+      </c>
+      <c r="E95" s="4" t="s">
+        <v>288</v>
       </c>
       <c r="G95" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>98</v>
+        <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>340</v>
-      </c>
-      <c r="C96" s="4" t="s">
-        <v>304</v>
+        <v>337</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
       <c r="G96" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="C97" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>346</v>
+        <v>290</v>
       </c>
       <c r="G97" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>344</v>
+        <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>340</v>
-      </c>
-      <c r="E98" s="4" t="s">
-        <v>347</v>
+        <v>337</v>
+      </c>
+      <c r="C98" t="s">
+        <v>303</v>
+      </c>
+      <c r="E98" t="s">
+        <v>291</v>
       </c>
       <c r="G98" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>100</v>
+        <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>340</v>
-      </c>
-      <c r="E99" s="4" t="s">
-        <v>297</v>
+        <v>337</v>
+      </c>
+      <c r="C99" t="s">
+        <v>304</v>
+      </c>
+      <c r="E99" t="s">
+        <v>292</v>
       </c>
       <c r="G99" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>340</v>
+        <v>337</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>301</v>
+      </c>
+      <c r="E100" s="4" t="s">
+        <v>293</v>
       </c>
       <c r="G100" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>93</v>
+        <v>115</v>
+      </c>
+      <c r="B101" t="s">
+        <v>337</v>
+      </c>
+      <c r="C101" t="s">
+        <v>305</v>
+      </c>
+      <c r="E101" s="4" t="s">
+        <v>343</v>
       </c>
       <c r="G101" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>94</v>
-      </c>
-      <c r="C102" t="s">
-        <v>257</v>
-      </c>
-      <c r="E102" t="s">
-        <v>257</v>
+        <v>341</v>
+      </c>
+      <c r="B102" t="s">
+        <v>337</v>
+      </c>
+      <c r="E102" s="4" t="s">
+        <v>344</v>
       </c>
       <c r="G102" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>67</v>
-      </c>
-      <c r="C103" t="s">
-        <v>257</v>
-      </c>
-      <c r="E103" t="s">
-        <v>257</v>
+        <v>98</v>
+      </c>
+      <c r="B103" t="s">
+        <v>337</v>
+      </c>
+      <c r="E103" s="4" t="s">
+        <v>294</v>
       </c>
       <c r="G103" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>69</v>
-      </c>
-      <c r="C104" t="s">
-        <v>258</v>
-      </c>
-      <c r="E104" t="s">
-        <v>258</v>
+        <v>103</v>
+      </c>
+      <c r="B104" t="s">
+        <v>337</v>
       </c>
       <c r="G104" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>71</v>
-      </c>
-      <c r="E105" s="4" t="s">
-        <v>254</v>
+        <v>91</v>
       </c>
       <c r="G105" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
     </row>
     <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>240</v>
+        <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>241</v>
-      </c>
-      <c r="E106" s="4" t="s">
-        <v>242</v>
+        <v>254</v>
+      </c>
+      <c r="E106" t="s">
+        <v>254</v>
       </c>
       <c r="G106" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
     </row>
     <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
+        <v>65</v>
+      </c>
+      <c r="C107" t="s">
+        <v>254</v>
+      </c>
+      <c r="E107" t="s">
+        <v>254</v>
+      </c>
+      <c r="G107" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A108" t="s">
+        <v>67</v>
+      </c>
+      <c r="C108" t="s">
+        <v>255</v>
+      </c>
+      <c r="E108" t="s">
+        <v>255</v>
+      </c>
+      <c r="G108" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A109" t="s">
+        <v>69</v>
+      </c>
+      <c r="E109" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="G109" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A110" t="s">
+        <v>237</v>
+      </c>
+      <c r="C110" t="s">
         <v>238</v>
       </c>
-      <c r="C107" s="6">
-        <v>4</v>
-      </c>
-      <c r="D107" s="6"/>
-      <c r="E107" s="6">
-        <v>4</v>
-      </c>
-      <c r="F107" s="6"/>
-      <c r="G107" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D108" s="4"/>
+      <c r="E110" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="G110" t="s">
+        <v>244</v>
+      </c>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A111" s="9" t="s">
-        <v>213</v>
+      <c r="A111" t="s">
+        <v>236</v>
+      </c>
+      <c r="C111" s="6">
+        <v>4</v>
+      </c>
+      <c r="D111" s="6"/>
+      <c r="E111" s="6">
+        <v>4</v>
+      </c>
+      <c r="F111" s="6"/>
+      <c r="G111" t="s">
+        <v>245</v>
       </c>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A112" t="s">
-        <v>214</v>
-      </c>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" t="s">
-        <v>223</v>
+      <c r="D112" s="4"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A114" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A115" t="s">
+        <v>355</v>
+      </c>
+      <c r="E115" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="G115" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A123" s="9" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A124" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A127" s="9" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A128" t="s">
+        <v>221</v>
       </c>
     </row>
   </sheetData>

--- a/docs/grammar.xlsx
+++ b/docs/grammar.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Duncan Munro\Dropbox\dev\lazarus\computing\z80\xa80\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DDA88BE-6D36-48D8-ABDE-A99CEB5FDFB8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D230536E-7343-422D-9486-167A658E9058}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="408" windowWidth="20004" windowHeight="11832" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
+    <workbookView xWindow="1920" yWindow="768" windowWidth="20100" windowHeight="11472" activeTab="1" xr2:uid="{18518297-CC5B-46E8-AB76-00AF9C4D448C}"/>
   </bookViews>
   <sheets>
     <sheet name="Description" sheetId="1" r:id="rId1"/>
@@ -800,9 +800,6 @@
     <t>N/P/L</t>
   </si>
   <si>
-    <t>[/t ]</t>
-  </si>
-  <si>
     <t>[,]</t>
   </si>
   <si>
@@ -1134,6 +1131,9 @@
   </si>
   <si>
     <t>Text to expand into a local qualifier, for example if this value is #$YM then the label START#$YM will expand to START0001</t>
+  </si>
+  <si>
+    <t>[\t ]</t>
   </si>
 </sst>
 </file>
@@ -1572,7 +1572,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0613FF5-2B04-45AD-9F67-606697632ED3}">
   <dimension ref="A1:C111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+    <sheetView topLeftCell="A71" workbookViewId="0">
       <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
@@ -1607,7 +1607,7 @@
         <v>244</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
@@ -1755,13 +1755,13 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -1860,7 +1860,7 @@
         <v>4</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -1964,13 +1964,13 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>4</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
@@ -2003,7 +2003,7 @@
         <v>245</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
@@ -2014,7 +2014,7 @@
         <v>244</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2041,13 +2041,13 @@
     </row>
     <row r="44" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2080,7 +2080,7 @@
         <v>42</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
@@ -2096,13 +2096,13 @@
     </row>
     <row r="49" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B49" s="3" t="s">
         <v>313</v>
       </c>
-      <c r="B49" s="3" t="s">
+      <c r="C49" s="3" t="s">
         <v>314</v>
-      </c>
-      <c r="C49" s="3" t="s">
-        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
@@ -2129,13 +2129,13 @@
     </row>
     <row r="52" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B52" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C52" s="3" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="53" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2176,21 +2176,21 @@
         <v>234</v>
       </c>
       <c r="B56" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C56" s="3" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="57" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>313</v>
+      </c>
+      <c r="C57" s="3" t="s">
         <v>326</v>
-      </c>
-      <c r="B57" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="C57" s="3" t="s">
-        <v>327</v>
       </c>
     </row>
     <row r="58" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2198,21 +2198,21 @@
         <v>233</v>
       </c>
       <c r="B58" s="3" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="C58" s="3" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="59" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B59" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C59" s="3" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
@@ -2267,7 +2267,7 @@
         <v>44</v>
       </c>
       <c r="C64" s="3" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
     </row>
     <row r="65" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
@@ -2278,7 +2278,7 @@
         <v>46</v>
       </c>
       <c r="C65" s="3" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.3">
@@ -2327,13 +2327,13 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B70" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C70" s="3" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.3">
@@ -2371,46 +2371,46 @@
     </row>
     <row r="74" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B74" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C74" s="3" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
     </row>
     <row r="75" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B75" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C75" s="3" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B76" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C76" s="3" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="77" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B77" s="3" t="s">
         <v>51</v>
       </c>
       <c r="C77" s="3" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.3">
@@ -2531,7 +2531,7 @@
         <v>4</v>
       </c>
       <c r="C88" s="3" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.3">
@@ -2542,7 +2542,7 @@
         <v>4</v>
       </c>
       <c r="C89" s="3" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="90" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2679,13 +2679,13 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B102" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C102" s="3" t="s">
         <v>341</v>
-      </c>
-      <c r="B102" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C102" s="3" t="s">
-        <v>342</v>
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
@@ -2773,7 +2773,7 @@
         <v>244</v>
       </c>
       <c r="C110" s="3" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
@@ -2784,7 +2784,7 @@
         <v>245</v>
       </c>
       <c r="C111" s="3" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
   </sheetData>
@@ -2799,8 +2799,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3FCB35D-BE1B-4C90-A6F7-1F428FFFD6EB}">
   <dimension ref="A1:H128"/>
   <sheetViews>
-    <sheetView topLeftCell="A51" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2825,7 +2825,7 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="C3" t="s">
         <v>169</v>
@@ -2865,7 +2865,7 @@
         <v>140</v>
       </c>
       <c r="B5" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C5" t="s">
         <v>173</v>
@@ -2879,13 +2879,13 @@
         <v>3</v>
       </c>
       <c r="B6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C6" t="s">
         <v>222</v>
       </c>
       <c r="E6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="G6" t="s">
         <v>246</v>
@@ -2896,13 +2896,13 @@
         <v>142</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C7" t="s">
         <v>223</v>
       </c>
       <c r="E7" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="G7" t="s">
         <v>246</v>
@@ -2913,10 +2913,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E8" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G8" t="s">
         <v>246</v>
@@ -2927,10 +2927,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="G9" t="s">
         <v>246</v>
@@ -2941,10 +2941,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E10" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="G10" t="s">
         <v>246</v>
@@ -2955,13 +2955,13 @@
         <v>12</v>
       </c>
       <c r="B11" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C11" t="s">
         <v>224</v>
       </c>
       <c r="E11" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s">
         <v>246</v>
@@ -2972,10 +2972,10 @@
         <v>14</v>
       </c>
       <c r="B12" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E12" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="G12" t="s">
         <v>246</v>
@@ -2986,7 +2986,7 @@
         <v>83</v>
       </c>
       <c r="B13" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E13" t="s">
         <v>175</v>
@@ -3000,7 +3000,7 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C14" t="s">
         <v>176</v>
@@ -3017,7 +3017,7 @@
         <v>85</v>
       </c>
       <c r="B15" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C15" t="s">
         <v>177</v>
@@ -3034,7 +3034,7 @@
         <v>18</v>
       </c>
       <c r="B16" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C16" t="s">
         <v>178</v>
@@ -3051,7 +3051,7 @@
         <v>20</v>
       </c>
       <c r="B17" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E17" t="s">
         <v>194</v>
@@ -3062,13 +3062,13 @@
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>307</v>
+      </c>
+      <c r="B18" t="s">
+        <v>311</v>
+      </c>
+      <c r="E18" t="s">
         <v>308</v>
-      </c>
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-      <c r="E18" t="s">
-        <v>309</v>
       </c>
       <c r="G18" t="s">
         <v>246</v>
@@ -3079,7 +3079,7 @@
         <v>22</v>
       </c>
       <c r="B19" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C19" t="s">
         <v>225</v>
@@ -3096,7 +3096,7 @@
         <v>144</v>
       </c>
       <c r="B20" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E20" t="s">
         <v>179</v>
@@ -3110,10 +3110,10 @@
         <v>166</v>
       </c>
       <c r="B21" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E21" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="G21" t="s">
         <v>246</v>
@@ -3124,7 +3124,7 @@
         <v>164</v>
       </c>
       <c r="B22" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E22" t="s">
         <v>195</v>
@@ -3138,7 +3138,7 @@
         <v>81</v>
       </c>
       <c r="B23" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C23" t="s">
         <v>180</v>
@@ -3155,7 +3155,7 @@
         <v>87</v>
       </c>
       <c r="B24" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E24" t="s">
         <v>181</v>
@@ -3169,7 +3169,7 @@
         <v>89</v>
       </c>
       <c r="B25" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E25" t="s">
         <v>182</v>
@@ -3183,7 +3183,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E26" t="s">
         <v>183</v>
@@ -3197,7 +3197,7 @@
         <v>228</v>
       </c>
       <c r="B27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C27" t="s">
         <v>174</v>
@@ -3214,7 +3214,7 @@
         <v>148</v>
       </c>
       <c r="B28" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E28" t="s">
         <v>184</v>
@@ -3228,13 +3228,13 @@
         <v>152</v>
       </c>
       <c r="B29" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C29" t="s">
         <v>226</v>
       </c>
       <c r="E29" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="G29" t="s">
         <v>246</v>
@@ -3245,10 +3245,10 @@
         <v>26</v>
       </c>
       <c r="B30" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E30" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G30" t="s">
         <v>246</v>
@@ -3259,10 +3259,10 @@
         <v>162</v>
       </c>
       <c r="B31" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E31" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="G31" t="s">
         <v>246</v>
@@ -3273,10 +3273,10 @@
         <v>161</v>
       </c>
       <c r="B32" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E32" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="G32" t="s">
         <v>246</v>
@@ -3287,10 +3287,10 @@
         <v>160</v>
       </c>
       <c r="B33" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E33" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G33" t="s">
         <v>246</v>
@@ -3301,13 +3301,13 @@
         <v>28</v>
       </c>
       <c r="B34" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C34" t="s">
         <v>185</v>
       </c>
       <c r="E34" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="G34" t="s">
         <v>246</v>
@@ -3318,7 +3318,7 @@
         <v>149</v>
       </c>
       <c r="B35" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E35" t="s">
         <v>186</v>
@@ -3332,7 +3332,7 @@
         <v>145</v>
       </c>
       <c r="B36" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="E36" t="s">
         <v>187</v>
@@ -3343,13 +3343,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
+        <v>305</v>
+      </c>
+      <c r="B37" t="s">
+        <v>311</v>
+      </c>
+      <c r="E37" t="s">
         <v>306</v>
-      </c>
-      <c r="B37" t="s">
-        <v>312</v>
-      </c>
-      <c r="E37" t="s">
-        <v>307</v>
       </c>
       <c r="G37" t="s">
         <v>246</v>
@@ -3360,7 +3360,7 @@
         <v>30</v>
       </c>
       <c r="E38" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="G38" t="s">
         <v>246</v>
@@ -3371,7 +3371,7 @@
         <v>32</v>
       </c>
       <c r="E39" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="G39" t="s">
         <v>246</v>
@@ -3433,7 +3433,7 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C44" s="4" t="s">
         <v>191</v>
@@ -3461,7 +3461,7 @@
         <v>197</v>
       </c>
       <c r="E46" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="G46" t="s">
         <v>246</v>
@@ -3494,7 +3494,7 @@
     </row>
     <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="C49" t="s">
         <v>188</v>
@@ -3511,10 +3511,10 @@
         <v>79</v>
       </c>
       <c r="B50" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="G50" t="s">
         <v>250</v>
@@ -3525,10 +3525,10 @@
         <v>77</v>
       </c>
       <c r="B51" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E51" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G51" t="s">
         <v>250</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C52" s="4" t="s">
         <v>232</v>
@@ -3597,7 +3597,7 @@
     </row>
     <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="C57" t="s">
         <v>188</v>
@@ -3625,7 +3625,7 @@
     </row>
     <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="G59" t="s">
         <v>51</v>
@@ -3714,7 +3714,7 @@
         <v>215</v>
       </c>
       <c r="E66" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="G66" t="s">
         <v>246</v>
@@ -3728,7 +3728,7 @@
         <v>200</v>
       </c>
       <c r="E67" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G67" t="s">
         <v>246</v>
@@ -3742,7 +3742,7 @@
         <v>214</v>
       </c>
       <c r="E68" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="G68" t="s">
         <v>246</v>
@@ -3756,7 +3756,7 @@
         <v>205</v>
       </c>
       <c r="E69" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="G69" t="s">
         <v>246</v>
@@ -3764,10 +3764,10 @@
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="C70" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E70" s="4" t="s">
         <v>191</v>
@@ -3811,7 +3811,7 @@
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="E74" s="4" t="s">
         <v>191</v>
@@ -3822,10 +3822,10 @@
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C75" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E75" s="4" t="s">
         <v>232</v>
@@ -3836,7 +3836,7 @@
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G76" t="s">
         <v>51</v>
@@ -3844,7 +3844,7 @@
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="G77" t="s">
         <v>51</v>
@@ -3855,13 +3855,13 @@
         <v>100</v>
       </c>
       <c r="B78" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C78" s="4" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="E78" s="4" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="G78" t="s">
         <v>250</v>
@@ -3872,13 +3872,13 @@
         <v>104</v>
       </c>
       <c r="B79" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C79" s="4" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="E79" s="4" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="G79" t="s">
         <v>250</v>
@@ -3889,13 +3889,13 @@
         <v>101</v>
       </c>
       <c r="B80" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C80" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="E80" s="4" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="G80" t="s">
         <v>250</v>
@@ -3906,13 +3906,13 @@
         <v>106</v>
       </c>
       <c r="B81" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C81" s="4" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="E81" s="4" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="G81" t="s">
         <v>250</v>
@@ -3923,13 +3923,13 @@
         <v>108</v>
       </c>
       <c r="B82" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C82" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E82" s="4" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="G82" t="s">
         <v>250</v>
@@ -3940,13 +3940,13 @@
         <v>110</v>
       </c>
       <c r="B83" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C83" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="E83" s="4" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="G83" t="s">
         <v>250</v>
@@ -3957,13 +3957,13 @@
         <v>102</v>
       </c>
       <c r="B84" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C84" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E84" s="4" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="G84" t="s">
         <v>250</v>
@@ -3974,10 +3974,10 @@
         <v>122</v>
       </c>
       <c r="B85" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E85" s="4" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="G85" t="s">
         <v>250</v>
@@ -3988,10 +3988,10 @@
         <v>117</v>
       </c>
       <c r="B86" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E86" s="4" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="G86" t="s">
         <v>250</v>
@@ -4002,10 +4002,10 @@
         <v>124</v>
       </c>
       <c r="B87" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E87" s="4" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G87" t="s">
         <v>250</v>
@@ -4016,13 +4016,13 @@
         <v>219</v>
       </c>
       <c r="B88" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="E88" s="4" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G88" t="s">
         <v>250</v>
@@ -4033,13 +4033,13 @@
         <v>218</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="E89" s="4" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G89" t="s">
         <v>250</v>
@@ -4050,7 +4050,7 @@
         <v>63</v>
       </c>
       <c r="B90" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E90" t="s">
         <v>188</v>
@@ -4064,10 +4064,10 @@
         <v>128</v>
       </c>
       <c r="B91" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E91" s="4" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G91" t="s">
         <v>250</v>
@@ -4078,10 +4078,10 @@
         <v>129</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E92" s="4" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="G92" t="s">
         <v>250</v>
@@ -4092,10 +4092,10 @@
         <v>130</v>
       </c>
       <c r="B93" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E93" s="4" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="G93" t="s">
         <v>250</v>
@@ -4106,10 +4106,10 @@
         <v>131</v>
       </c>
       <c r="B94" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E94" s="4" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="G94" t="s">
         <v>250</v>
@@ -4120,10 +4120,10 @@
         <v>132</v>
       </c>
       <c r="B95" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E95" s="4" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="G95" t="s">
         <v>250</v>
@@ -4134,10 +4134,10 @@
         <v>133</v>
       </c>
       <c r="B96" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E96" s="4" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="G96" t="s">
         <v>250</v>
@@ -4148,13 +4148,13 @@
         <v>112</v>
       </c>
       <c r="B97" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C97" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="E97" s="4" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G97" t="s">
         <v>250</v>
@@ -4165,13 +4165,13 @@
         <v>113</v>
       </c>
       <c r="B98" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C98" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="E98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="G98" t="s">
         <v>250</v>
@@ -4182,13 +4182,13 @@
         <v>114</v>
       </c>
       <c r="B99" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C99" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="E99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="G99" t="s">
         <v>250</v>
@@ -4199,13 +4199,13 @@
         <v>96</v>
       </c>
       <c r="B100" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C100" s="4" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="E100" s="4" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="G100" t="s">
         <v>250</v>
@@ -4216,13 +4216,13 @@
         <v>115</v>
       </c>
       <c r="B101" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="C101" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E101" s="4" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G101" t="s">
         <v>250</v>
@@ -4230,13 +4230,13 @@
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B102" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E102" s="4" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="G102" t="s">
         <v>250</v>
@@ -4247,10 +4247,10 @@
         <v>98</v>
       </c>
       <c r="B103" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E103" s="4" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="G103" t="s">
         <v>250</v>
@@ -4261,7 +4261,7 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="G104" t="s">
         <v>250</v>
@@ -4280,10 +4280,10 @@
         <v>92</v>
       </c>
       <c r="C106" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="E106" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="G106" t="s">
         <v>249</v>
@@ -4294,10 +4294,10 @@
         <v>65</v>
       </c>
       <c r="C107" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="E107" t="s">
-        <v>254</v>
+        <v>361</v>
       </c>
       <c r="G107" t="s">
         <v>249</v>
@@ -4308,10 +4308,10 @@
         <v>67</v>
       </c>
       <c r="C108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="E108" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="G108" t="s">
         <v>249</v>
@@ -4363,12 +4363,12 @@
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E115" s="4" t="s">
         <v>191</v>
